--- a/周数据/《实施上线数据统计表》-杨磊.xlsx
+++ b/周数据/《实施上线数据统计表》-杨磊.xlsx
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="205">
   <si>
     <t>月份</t>
   </si>
@@ -767,12 +767,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>杨磊</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>前往四道汤万达茂店实施</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>06月</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四道汤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四道汤南京万达茂店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁总</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8号到店实施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月11号到店实施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏帆帆</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1848,6 +1871,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1932,43 +1972,18 @@
     <xf numFmtId="9" fontId="15" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2245,7 +2260,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2261,72 +2276,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="112" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="123" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A4" s="106"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="110"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="113"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="119"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="124"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="61" t="s">
@@ -2454,7 +2469,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="128" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -2475,7 +2490,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="123"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="54" t="s">
         <v>50</v>
       </c>
@@ -2496,7 +2511,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="123"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="54" t="s">
         <v>39</v>
       </c>
@@ -2519,7 +2534,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="123"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="54" t="s">
         <v>40</v>
       </c>
@@ -2548,7 +2563,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="123"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="56" t="s">
         <v>185</v>
       </c>
@@ -2578,7 +2593,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="124"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="58"/>
       <c r="C15" s="59"/>
       <c r="D15" s="48"/>
@@ -2601,703 +2616,705 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="120"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="A16" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="54">
+        <v>23</v>
+      </c>
+      <c r="C16" s="55">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0</v>
+      </c>
       <c r="F16" s="34">
-        <f t="shared" ref="F16:F45" si="4">D16+E16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="35">
+        <v>2</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" ref="H16:H45" si="4">E16/F16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="35">
-        <f t="shared" ref="G16:G45" si="5">C16-F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="36" t="e">
-        <f t="shared" ref="H16:H45" si="6">E16/F16</f>
+      <c r="I16" s="37" t="e">
+        <f t="shared" ref="I16:I45" si="5">F16/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="37" t="e">
-        <f t="shared" ref="I16:I45" si="7">F16/C16</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="120"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="56"/>
       <c r="C17" s="57"/>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42">
+        <f t="shared" ref="F16:F45" si="6">D17+E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="43">
+        <f t="shared" ref="G16:G45" si="7">C17-F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="120"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="56"/>
       <c r="C18" s="57"/>
       <c r="D18" s="40"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="120"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="56"/>
       <c r="C19" s="57"/>
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="120"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="56"/>
       <c r="C20" s="57"/>
       <c r="D20" s="40"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="58"/>
       <c r="C21" s="59"/>
       <c r="D21" s="48"/>
       <c r="E21" s="49"/>
       <c r="F21" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="52" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="51">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="53" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="52" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="53" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="120"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="54"/>
       <c r="C22" s="55"/>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="36" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="35">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="37" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="36" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="120"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="56"/>
       <c r="C23" s="57"/>
       <c r="D23" s="40"/>
       <c r="E23" s="41"/>
       <c r="F23" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="120"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="56"/>
       <c r="C24" s="57"/>
       <c r="D24" s="40"/>
       <c r="E24" s="41"/>
       <c r="F24" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="120"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="56"/>
       <c r="C25" s="57"/>
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
       <c r="F25" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="120"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="56"/>
       <c r="C26" s="57"/>
       <c r="D26" s="40"/>
       <c r="E26" s="41"/>
       <c r="F26" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A27" s="121"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59"/>
       <c r="D27" s="48"/>
       <c r="E27" s="49"/>
       <c r="F27" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="52" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="51">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="53" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="52" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="53" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="120"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
       <c r="F28" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="36" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="35">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="37" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="36" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="120"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="56"/>
       <c r="C29" s="57"/>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="120"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="56"/>
       <c r="C30" s="57"/>
       <c r="D30" s="40"/>
       <c r="E30" s="41"/>
       <c r="F30" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="120"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="56"/>
       <c r="C31" s="57"/>
       <c r="D31" s="40"/>
       <c r="E31" s="41"/>
       <c r="F31" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="120"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="56"/>
       <c r="C32" s="57"/>
       <c r="D32" s="40"/>
       <c r="E32" s="41"/>
       <c r="F32" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A33" s="121"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="58"/>
       <c r="C33" s="59"/>
       <c r="D33" s="48"/>
       <c r="E33" s="49"/>
       <c r="F33" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="52" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="51">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="53" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="52" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="53" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="120"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="54"/>
       <c r="C34" s="55"/>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
       <c r="F34" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="36" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="35">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="37" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="36" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="120"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="56"/>
       <c r="C35" s="57"/>
       <c r="D35" s="40"/>
       <c r="E35" s="41"/>
       <c r="F35" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="120"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="56"/>
       <c r="C36" s="57"/>
       <c r="D36" s="40"/>
       <c r="E36" s="41"/>
       <c r="F36" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="120"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="56"/>
       <c r="C37" s="57"/>
       <c r="D37" s="40"/>
       <c r="E37" s="41"/>
       <c r="F37" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="120"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="56"/>
       <c r="C38" s="57"/>
       <c r="D38" s="40"/>
       <c r="E38" s="41"/>
       <c r="F38" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A39" s="121"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="58"/>
       <c r="C39" s="59"/>
       <c r="D39" s="48"/>
       <c r="E39" s="49"/>
       <c r="F39" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="52" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="51">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="53" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="52" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="53" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="120"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="54"/>
       <c r="C40" s="55"/>
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
       <c r="F40" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="36" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="35">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="37" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="36" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="37" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="120"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="54"/>
       <c r="C41" s="57"/>
       <c r="D41" s="40"/>
       <c r="E41" s="41"/>
       <c r="F41" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="120"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="54"/>
       <c r="C42" s="57"/>
       <c r="D42" s="40"/>
       <c r="E42" s="41"/>
       <c r="F42" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="120"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="54"/>
       <c r="C43" s="57"/>
       <c r="D43" s="40"/>
       <c r="E43" s="41"/>
       <c r="F43" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="120"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="54"/>
       <c r="C44" s="57"/>
       <c r="D44" s="40"/>
       <c r="E44" s="41"/>
       <c r="F44" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="44" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="45" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="44" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="58"/>
       <c r="C45" s="59"/>
       <c r="D45" s="48"/>
       <c r="E45" s="49"/>
       <c r="F45" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="52" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="51">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" s="53" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="52" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="53" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:A4"/>
@@ -3308,6 +3325,12 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3318,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -5797,10 +5820,10 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="64">
+      <c r="A59" s="25">
         <v>22</v>
       </c>
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="96" t="s">
         <v>186</v>
       </c>
       <c r="C59" s="13"/>
@@ -5817,23 +5840,52 @@
       <c r="N59" s="19"/>
       <c r="O59" s="7"/>
     </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="64"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="24"/>
+    <row r="60" spans="1:16" s="4" customFormat="1">
+      <c r="A60" s="25">
+        <v>23</v>
+      </c>
+      <c r="B60" s="66">
+        <v>43257</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="25">
+        <v>76175770</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K60" s="15">
+        <v>18061296271</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N60" s="15">
+        <v>18505112888</v>
+      </c>
+      <c r="O60" s="25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="64"/>
@@ -9994,7 +10046,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -10057,7 +10109,7 @@
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="127"/>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="98" t="s">
         <v>188</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -10073,28 +10125,54 @@
         <v>195</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="15"/>
+      <c r="A4" s="125">
+        <v>23</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1">
@@ -10241,7 +10319,7 @@
       <c r="A20" s="25"/>
       <c r="B20" s="6"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="129"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -10251,7 +10329,7 @@
       <c r="A21" s="25"/>
       <c r="B21" s="6"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="129"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -10628,12 +10706,13 @@
       <c r="H58" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1048576 E3:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576 E3">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
@@ -10708,7 +10787,7 @@
         <v>43247</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="26"/>

--- a/周数据/《实施上线数据统计表》-杨磊.xlsx
+++ b/周数据/《实施上线数据统计表》-杨磊.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="213">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -146,6 +146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>S</t>
@@ -155,6 +156,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AAS</t>
@@ -241,6 +243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -251,6 +254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -647,19 +651,130 @@
   <si>
     <t>楼兰中央商场店驻店</t>
   </si>
+  <si>
+    <r>
+      <t>6月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（溧阳上河城店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（丹阳店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青森（宁波天一广场店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青森</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>青森食品销售中心</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈总</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京路野餐饮管理有限公司</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沛公地锅鸡（南通海安店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沛公地锅鸡</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青森（常州武进万达广场店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号到店实施</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +831,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -730,6 +846,7 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -739,6 +856,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -748,6 +866,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -755,8 +874,9 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -765,6 +885,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -774,6 +895,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -782,161 +904,40 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,13 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,13 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,19 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,164 +1022,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="46">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1678,254 +1523,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,9 +1599,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1995,9 +1608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2082,9 +1692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2111,6 +1718,134 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2141,253 +1876,106 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2649,16 +2237,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2673,1062 +2261,1069 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:9">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:9" ht="64.5" customHeight="1">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-    </row>
-    <row r="2" ht="21" spans="1:9">
-      <c r="A2" s="65" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="118"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="70" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="103"/>
+      <c r="F3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="117" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="119" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="105"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63">
         <v>4</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="64">
         <v>5</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90">
+      <c r="E5" s="65"/>
+      <c r="F5" s="66">
         <v>5</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92">
+      <c r="G5" s="67"/>
+      <c r="H5" s="68">
         <f t="shared" ref="H5:H15" si="0">E5/F5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="121">
+      <c r="I5" s="91">
         <f t="shared" ref="I5:I15" si="1">F5/C5</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94">
+      <c r="B6" s="69"/>
+      <c r="C6" s="70">
         <v>3</v>
       </c>
-      <c r="D6" s="95">
+      <c r="D6" s="71">
         <v>6</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97">
+      <c r="E6" s="72"/>
+      <c r="F6" s="73">
         <v>6</v>
       </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99">
+      <c r="G6" s="74"/>
+      <c r="H6" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="122">
+      <c r="I6" s="92">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94">
+      <c r="B7" s="69"/>
+      <c r="C7" s="70">
         <v>1</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="71">
         <v>4</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97">
+      <c r="E7" s="72"/>
+      <c r="F7" s="73">
         <v>4</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99">
+      <c r="G7" s="74"/>
+      <c r="H7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="92">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94">
+      <c r="B8" s="69"/>
+      <c r="C8" s="70">
         <v>5</v>
       </c>
-      <c r="D8" s="95">
+      <c r="D8" s="71">
         <v>9</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97">
+      <c r="E8" s="72"/>
+      <c r="F8" s="73">
         <v>9</v>
       </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99">
+      <c r="G8" s="74"/>
+      <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="122">
+      <c r="I8" s="92">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:9">
-      <c r="A9" s="101" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103">
+      <c r="B9" s="78"/>
+      <c r="C9" s="79">
         <v>8</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="80">
         <v>16</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106">
+      <c r="E9" s="81"/>
+      <c r="F9" s="82">
         <v>16</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108">
+      <c r="G9" s="83"/>
+      <c r="H9" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="123">
+      <c r="I9" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92" t="e">
+      <c r="C10" s="86"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="121" t="e">
+      <c r="I10" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="112"/>
-      <c r="B11" s="110" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="87">
         <v>3</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99" t="e">
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="122">
+      <c r="I11" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="112"/>
-      <c r="B12" s="110" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="95">
+      <c r="C12" s="87"/>
+      <c r="D12" s="71">
         <v>5</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97">
+      <c r="E12" s="72"/>
+      <c r="F12" s="73">
         <v>5</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99">
+      <c r="G12" s="74"/>
+      <c r="H12" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="122" t="e">
+      <c r="I12" s="92" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="112"/>
-      <c r="B13" s="110" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="87">
         <v>2</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="71">
         <v>3</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="72">
         <v>4</v>
       </c>
-      <c r="F13" s="97">
+      <c r="F13" s="73">
         <v>7</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="74">
         <v>0</v>
       </c>
-      <c r="H13" s="99">
+      <c r="H13" s="75">
         <f t="shared" si="0"/>
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I13" s="122">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I13" s="92">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="112"/>
-      <c r="B14" s="114" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="87">
         <v>2</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D14" s="71">
         <v>0</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="72">
         <v>0</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="73">
         <f t="shared" ref="F14:F15" si="2">D14+E14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="74">
         <v>3</v>
       </c>
-      <c r="H14" s="99" t="e">
+      <c r="H14" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="122">
+      <c r="I14" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:9">
-      <c r="A15" s="112"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106">
+    <row r="15" spans="1:9">
+      <c r="A15" s="129"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="83">
         <f t="shared" ref="G15" si="3">C15-F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="108" t="e">
+      <c r="H15" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="123" t="e">
+      <c r="I15" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="110">
+      <c r="B16" s="85">
         <v>23</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="86">
         <v>0</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="64">
         <v>1</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="65">
         <v>0</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="66">
         <v>1</v>
       </c>
-      <c r="G16" s="91">
+      <c r="G16" s="67">
         <v>2</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="68">
         <f t="shared" ref="H16:H45" si="4">E16/F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="121" t="e">
+      <c r="I16" s="91" t="e">
         <f t="shared" ref="I16:I45" si="5">F16/C16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="112"/>
-      <c r="B17" s="114">
+      <c r="A17" s="107"/>
+      <c r="B17" s="88">
         <v>24</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="87">
         <v>1</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D17" s="71">
         <v>0</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97">
-        <f t="shared" ref="F16:F45" si="6">D17+E17</f>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73">
+        <f t="shared" ref="F17:F45" si="6">D17+E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="98">
-        <f t="shared" ref="G16:G45" si="7">C17-F17</f>
+      <c r="G17" s="74">
+        <f t="shared" ref="G17:G45" si="7">C17-F17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="99" t="e">
+      <c r="H17" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="122">
+      <c r="I17" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="112"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97">
+      <c r="A18" s="107"/>
+      <c r="B18" s="88">
+        <v>25</v>
+      </c>
+      <c r="C18" s="87">
+        <v>0</v>
+      </c>
+      <c r="D18" s="71">
+        <v>1</v>
+      </c>
+      <c r="E18" s="72">
+        <v>3</v>
+      </c>
+      <c r="F18" s="73">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G18" s="74">
+        <v>1</v>
+      </c>
+      <c r="H18" s="75">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="I18" s="92" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="107"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G19" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H18" s="99" t="e">
+      <c r="H19" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="122" t="e">
+      <c r="I19" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="112"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97">
+    <row r="20" spans="1:9">
+      <c r="A20" s="107"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G20" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="99" t="e">
+      <c r="H20" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="122" t="e">
+      <c r="I20" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="112"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97">
+    <row r="21" spans="1:9">
+      <c r="A21" s="108"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G20" s="98">
+      <c r="G21" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="99" t="e">
+      <c r="H21" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="122" t="e">
+      <c r="I21" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:9">
-      <c r="A21" s="117"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="106">
+    <row r="22" spans="1:9">
+      <c r="A22" s="107"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="107">
+      <c r="G22" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="108" t="e">
+      <c r="H22" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="123" t="e">
+      <c r="I22" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="112"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90">
+    <row r="23" spans="1:9">
+      <c r="A23" s="107"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G22" s="91">
+      <c r="G23" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H22" s="92" t="e">
+      <c r="H23" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="121" t="e">
+      <c r="I23" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="112"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="97">
+    <row r="24" spans="1:9">
+      <c r="A24" s="107"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="98">
+      <c r="G24" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H23" s="99" t="e">
+      <c r="H24" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="122" t="e">
+      <c r="I24" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="112"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97">
+    <row r="25" spans="1:9">
+      <c r="A25" s="107"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G24" s="98">
+      <c r="G25" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H24" s="99" t="e">
+      <c r="H25" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="122" t="e">
+      <c r="I25" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="112"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97">
+    <row r="26" spans="1:9">
+      <c r="A26" s="107"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G26" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H25" s="99" t="e">
+      <c r="H26" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="122" t="e">
+      <c r="I26" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="112"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="97">
+    <row r="27" spans="1:9">
+      <c r="A27" s="108"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G27" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H26" s="99" t="e">
+      <c r="H27" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="122" t="e">
+      <c r="I27" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:9">
-      <c r="A27" s="117"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="106">
+    <row r="28" spans="1:9">
+      <c r="A28" s="107"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G27" s="107">
+      <c r="G28" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H27" s="108" t="e">
+      <c r="H28" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="123" t="e">
+      <c r="I28" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="112"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90">
+    <row r="29" spans="1:9">
+      <c r="A29" s="107"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G28" s="91">
+      <c r="G29" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H28" s="92" t="e">
+      <c r="H29" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="121" t="e">
+      <c r="I29" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="112"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97">
+    <row r="30" spans="1:9">
+      <c r="A30" s="107"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G29" s="98">
+      <c r="G30" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H29" s="99" t="e">
+      <c r="H30" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="122" t="e">
+      <c r="I30" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="112"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97">
+    <row r="31" spans="1:9">
+      <c r="A31" s="107"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G30" s="98">
+      <c r="G31" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H30" s="99" t="e">
+      <c r="H31" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="122" t="e">
+      <c r="I31" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="112"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97">
+    <row r="32" spans="1:9">
+      <c r="A32" s="107"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G31" s="98">
+      <c r="G32" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H31" s="99" t="e">
+      <c r="H32" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="122" t="e">
+      <c r="I32" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="112"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="97">
+    <row r="33" spans="1:9">
+      <c r="A33" s="108"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G32" s="98">
+      <c r="G33" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H32" s="99" t="e">
+      <c r="H33" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="122" t="e">
+      <c r="I33" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:9">
-      <c r="A33" s="117"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="106">
+    <row r="34" spans="1:9">
+      <c r="A34" s="107"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G33" s="107">
+      <c r="G34" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H33" s="108" t="e">
+      <c r="H34" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="123" t="e">
+      <c r="I34" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="112"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="90">
+    <row r="35" spans="1:9">
+      <c r="A35" s="107"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G34" s="91">
+      <c r="G35" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H34" s="92" t="e">
+      <c r="H35" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="121" t="e">
+      <c r="I35" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="112"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97">
+    <row r="36" spans="1:9">
+      <c r="A36" s="107"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G35" s="98">
+      <c r="G36" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H35" s="99" t="e">
+      <c r="H36" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="122" t="e">
+      <c r="I36" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="112"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="97">
+    <row r="37" spans="1:9">
+      <c r="A37" s="107"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G36" s="98">
+      <c r="G37" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H36" s="99" t="e">
+      <c r="H37" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="122" t="e">
+      <c r="I37" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="112"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="97">
+    <row r="38" spans="1:9">
+      <c r="A38" s="107"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G37" s="98">
+      <c r="G38" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="99" t="e">
+      <c r="H38" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="122" t="e">
+      <c r="I38" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="112"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="97">
+    <row r="39" spans="1:9">
+      <c r="A39" s="108"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G38" s="98">
+      <c r="G39" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H38" s="99" t="e">
+      <c r="H39" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="122" t="e">
+      <c r="I39" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:9">
-      <c r="A39" s="117"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="106">
+    <row r="40" spans="1:9">
+      <c r="A40" s="107"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G39" s="107">
+      <c r="G40" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H39" s="108" t="e">
+      <c r="H40" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="123" t="e">
+      <c r="I40" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="112"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90">
+    <row r="41" spans="1:9">
+      <c r="A41" s="107"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G40" s="91">
+      <c r="G41" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H40" s="92" t="e">
+      <c r="H41" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="121" t="e">
+      <c r="I41" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="112"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="97">
+    <row r="42" spans="1:9">
+      <c r="A42" s="107"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G41" s="98">
+      <c r="G42" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H41" s="99" t="e">
+      <c r="H42" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="122" t="e">
+      <c r="I42" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="112"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97">
+    <row r="43" spans="1:9">
+      <c r="A43" s="107"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G42" s="98">
+      <c r="G43" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H42" s="99" t="e">
+      <c r="H43" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="122" t="e">
+      <c r="I43" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="112"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="97">
+    <row r="44" spans="1:9">
+      <c r="A44" s="107"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G43" s="98">
+      <c r="G44" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H43" s="99" t="e">
+      <c r="H44" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="122" t="e">
+      <c r="I44" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="112"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="97">
+    <row r="45" spans="1:9">
+      <c r="A45" s="108"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G44" s="98">
+      <c r="G45" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H44" s="99" t="e">
+      <c r="H45" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="122" t="e">
+      <c r="I45" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:9">
-      <c r="A45" s="117"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="107">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="108" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="123" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
@@ -3736,18 +3331,17 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -3766,58 +3360,58 @@
     <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:15" s="40" customFormat="1" ht="27">
+      <c r="A1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+    <row r="2" spans="1:15" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>51</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="45">
         <v>43073</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3860,11 +3454,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+    <row r="3" spans="1:15" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>52</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="45">
         <v>43095</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3907,11 +3501,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+    <row r="4" spans="1:15" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>52</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="45">
         <v>43077</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3954,11 +3548,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    <row r="5" spans="1:15" s="1" customFormat="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="45">
         <v>43105</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -4001,11 +3595,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:15">
+    <row r="6" spans="1:15" s="1" customFormat="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="45">
         <v>43105</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4048,11 +3642,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:15">
+    <row r="7" spans="1:15" s="1" customFormat="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -4067,11 +3661,11 @@
       <c r="N7" s="9"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:15">
+    <row r="8" spans="1:15" s="1" customFormat="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -4086,11 +3680,11 @@
       <c r="N8" s="9"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:15">
+    <row r="9" spans="1:15" s="1" customFormat="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="9"/>
@@ -4131,11 +3725,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:15">
+    <row r="10" spans="1:15" s="1" customFormat="1">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="9"/>
@@ -4176,11 +3770,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:15">
+    <row r="11" spans="1:15" s="1" customFormat="1">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="9"/>
@@ -4221,11 +3815,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="9"/>
@@ -4266,11 +3860,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:15">
+    <row r="13" spans="1:15" s="1" customFormat="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="2"/>
@@ -4311,7 +3905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:15">
+    <row r="14" spans="1:15" s="1" customFormat="1">
       <c r="A14" s="2"/>
       <c r="B14" s="12"/>
       <c r="C14" s="2"/>
@@ -4328,9 +3922,9 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:15">
+    <row r="15" spans="1:15" s="1" customFormat="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="48"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -4345,11 +3939,11 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:15">
+    <row r="16" spans="1:15" s="1" customFormat="1">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="46">
         <v>43187</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -4392,11 +3986,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:15">
+    <row r="17" spans="1:15" s="1" customFormat="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="46">
         <v>43187</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -4439,11 +4033,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:15">
+    <row r="18" spans="1:15" s="1" customFormat="1">
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="46">
         <v>43187</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4486,11 +4080,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:15">
+    <row r="19" spans="1:15" s="1" customFormat="1">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="46">
         <v>43187</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -4533,11 +4127,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:15">
+    <row r="20" spans="1:15" s="1" customFormat="1">
       <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="46">
         <v>43187</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -4580,11 +4174,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:15">
+    <row r="21" spans="1:15" s="1" customFormat="1">
       <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="46">
         <v>43190</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -4627,11 +4221,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:15">
+    <row r="22" spans="1:15" s="1" customFormat="1">
       <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="46">
         <v>43190</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -4674,11 +4268,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:15">
+    <row r="23" spans="1:15" s="1" customFormat="1">
       <c r="A23" s="2">
         <v>13</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="46">
         <v>43190</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -4723,7 +4317,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3"/>
-      <c r="B24" s="49"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4738,11 +4332,11 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:15">
+    <row r="25" spans="1:15" s="1" customFormat="1">
       <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="46">
         <v>43208</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -4760,7 +4354,7 @@
       <c r="G25" s="2">
         <v>76153979</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="48" t="s">
         <v>101</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -4785,11 +4379,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:15">
+    <row r="26" spans="1:15" s="1" customFormat="1">
       <c r="A26" s="2">
         <v>16</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="46">
         <v>43208</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4807,7 +4401,7 @@
       <c r="G26" s="2">
         <v>76156173</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="48" t="s">
         <v>103</v>
       </c>
       <c r="I26" s="9" t="s">
@@ -4832,11 +4426,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:15">
+    <row r="27" spans="1:15" s="1" customFormat="1">
       <c r="A27" s="2">
         <v>16</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="46">
         <v>43208</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -4879,11 +4473,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:15">
+    <row r="28" spans="1:15" s="1" customFormat="1">
       <c r="A28" s="2">
         <v>16</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="46">
         <v>43208</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -4901,7 +4495,7 @@
       <c r="G28" s="2">
         <v>76152838</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="48" t="s">
         <v>108</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -4926,11 +4520,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:15">
+    <row r="29" spans="1:15" s="1" customFormat="1">
       <c r="A29" s="2">
         <v>16</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="46">
         <v>43208</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -4948,7 +4542,7 @@
       <c r="G29" s="2">
         <v>76152851</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="48" t="s">
         <v>110</v>
       </c>
       <c r="I29" s="9" t="s">
@@ -4966,18 +4560,18 @@
       <c r="M29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="51">
+      <c r="N29" s="49">
         <v>18851058032</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:15">
+    <row r="30" spans="1:15" s="1" customFormat="1">
       <c r="A30" s="2">
         <v>16</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="46">
         <v>43208</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4995,7 +4589,7 @@
       <c r="G30" s="2">
         <v>76138868</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="48" t="s">
         <v>113</v>
       </c>
       <c r="I30" s="9" t="s">
@@ -5020,11 +4614,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:15">
+    <row r="31" spans="1:15" s="1" customFormat="1">
       <c r="A31" s="2">
         <v>16</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="46">
         <v>43208</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -5042,7 +4636,7 @@
       <c r="G31" s="9">
         <v>76128369</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="48" t="s">
         <v>115</v>
       </c>
       <c r="I31" s="9" t="s">
@@ -5067,11 +4661,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:15">
+    <row r="32" spans="1:15" s="1" customFormat="1">
       <c r="A32" s="2">
         <v>16</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="46">
         <v>43208</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -5089,7 +4683,7 @@
       <c r="G32" s="9">
         <v>76128810</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="48" t="s">
         <v>116</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -5114,11 +4708,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:15">
+    <row r="33" spans="1:15" s="1" customFormat="1">
       <c r="A33" s="2">
         <v>16</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="46">
         <v>43208</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -5136,7 +4730,7 @@
       <c r="G33" s="9">
         <v>76126516</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="48" t="s">
         <v>117</v>
       </c>
       <c r="I33" s="9" t="s">
@@ -5161,11 +4755,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:15">
+    <row r="34" spans="1:15" s="1" customFormat="1">
       <c r="A34" s="2">
         <v>16</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="46">
         <v>43208</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -5183,7 +4777,7 @@
       <c r="G34" s="9">
         <v>76123630</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="48" t="s">
         <v>118</v>
       </c>
       <c r="I34" s="9" t="s">
@@ -5208,11 +4802,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:15">
+    <row r="35" spans="1:15" s="1" customFormat="1">
       <c r="A35" s="2">
         <v>16</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="46">
         <v>43208</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -5230,7 +4824,7 @@
       <c r="G35" s="9">
         <v>76153981</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="48" t="s">
         <v>119</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -5255,11 +4849,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:15">
+    <row r="36" spans="1:15" s="1" customFormat="1">
       <c r="A36" s="2">
         <v>16</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="46">
         <v>43208</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -5277,7 +4871,7 @@
       <c r="G36" s="9">
         <v>76158096</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="48" t="s">
         <v>120</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -5302,11 +4896,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:15">
+    <row r="37" spans="1:15" s="1" customFormat="1">
       <c r="A37" s="2">
         <v>16</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="46">
         <v>43208</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -5324,7 +4918,7 @@
       <c r="G37" s="2">
         <v>76159921</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="48" t="s">
         <v>121</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -5349,11 +4943,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:15">
+    <row r="38" spans="1:15" s="1" customFormat="1">
       <c r="A38" s="2">
         <v>16</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="46">
         <v>43208</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -5371,7 +4965,7 @@
       <c r="G38" s="2">
         <v>76160131</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="48" t="s">
         <v>122</v>
       </c>
       <c r="I38" s="9" t="s">
@@ -5396,11 +4990,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:15">
+    <row r="39" spans="1:15" s="1" customFormat="1">
       <c r="A39" s="2">
         <v>16</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="46">
         <v>43208</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -5436,16 +5030,16 @@
       <c r="M39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N39" s="51">
+      <c r="N39" s="49">
         <v>13675152232</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:15">
+    <row r="40" spans="1:15" s="1" customFormat="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="48"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -5460,11 +5054,11 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:15">
+    <row r="41" spans="1:15" s="1" customFormat="1">
       <c r="A41" s="2">
         <v>17</v>
       </c>
-      <c r="B41" s="48">
+      <c r="B41" s="46">
         <v>43215</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -5507,11 +5101,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:15">
+    <row r="42" spans="1:15" s="1" customFormat="1">
       <c r="A42" s="2">
         <v>18</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -5526,11 +5120,11 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:15">
+    <row r="43" spans="1:15" s="1" customFormat="1">
       <c r="A43" s="2">
         <v>19</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -5545,11 +5139,11 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:15">
-      <c r="A44" s="19">
+    <row r="44" spans="1:15" s="1" customFormat="1">
+      <c r="A44" s="121">
         <v>20</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="46">
         <v>43235</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -5567,7 +5161,7 @@
       <c r="G44" s="2">
         <v>76162827</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="49" t="s">
         <v>135</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -5593,8 +5187,8 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="52"/>
-      <c r="B45" s="48">
+      <c r="A45" s="122"/>
+      <c r="B45" s="46">
         <v>43235</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -5638,8 +5232,8 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="52"/>
-      <c r="B46" s="48">
+      <c r="A46" s="122"/>
+      <c r="B46" s="46">
         <v>43235</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -5683,8 +5277,8 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="48">
+      <c r="A47" s="122"/>
+      <c r="B47" s="46">
         <v>43235</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -5727,54 +5321,54 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" s="43" customFormat="1" spans="1:15">
-      <c r="A48" s="52"/>
-      <c r="B48" s="53">
+    <row r="48" spans="1:15" s="41" customFormat="1">
+      <c r="A48" s="122"/>
+      <c r="B48" s="50">
         <v>43235</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="54" t="s">
+      <c r="F48" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="54">
+      <c r="G48" s="51">
         <v>76121892</v>
       </c>
-      <c r="H48" s="54" t="s">
+      <c r="H48" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="54" t="s">
+      <c r="I48" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J48" s="54" t="s">
+      <c r="J48" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="K48" s="54">
+      <c r="K48" s="51">
         <v>18061296271</v>
       </c>
-      <c r="L48" s="54" t="s">
+      <c r="L48" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="N48" s="59">
+      <c r="N48" s="56">
         <v>13182829987</v>
       </c>
-      <c r="O48" s="54" t="s">
+      <c r="O48" s="51" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="48">
+      <c r="A49" s="122"/>
+      <c r="B49" s="46">
         <v>43235</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -5818,8 +5412,8 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="23"/>
-      <c r="B50" s="48">
+      <c r="A50" s="123"/>
+      <c r="B50" s="46">
         <v>43235</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -5863,10 +5457,10 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="19">
+      <c r="A51" s="121">
         <v>21</v>
       </c>
-      <c r="B51" s="48">
+      <c r="B51" s="46">
         <v>43243</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -5910,8 +5504,8 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="52"/>
-      <c r="B52" s="48">
+      <c r="A52" s="122"/>
+      <c r="B52" s="46">
         <v>43243</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -5955,8 +5549,8 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="48">
+      <c r="A53" s="122"/>
+      <c r="B53" s="46">
         <v>43243</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -6000,8 +5594,8 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="52"/>
-      <c r="B54" s="48">
+      <c r="A54" s="122"/>
+      <c r="B54" s="46">
         <v>43243</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -6045,8 +5639,8 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="48">
+      <c r="A55" s="122"/>
+      <c r="B55" s="46">
         <v>43243</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -6090,8 +5684,8 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="52"/>
-      <c r="B56" s="48">
+      <c r="A56" s="122"/>
+      <c r="B56" s="46">
         <v>43243</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -6135,8 +5729,8 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="52"/>
-      <c r="B57" s="48">
+      <c r="A57" s="122"/>
+      <c r="B57" s="46">
         <v>43243</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -6180,8 +5774,8 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="23"/>
-      <c r="B58" s="48">
+      <c r="A58" s="123"/>
+      <c r="B58" s="46">
         <v>43243</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -6228,28 +5822,28 @@
       <c r="A59" s="2">
         <v>22</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="60"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="57"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:15">
+    <row r="60" spans="1:15" s="1" customFormat="1">
       <c r="A60" s="2">
         <v>23</v>
       </c>
-      <c r="B60" s="48">
+      <c r="B60" s="46">
         <v>43257</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -6292,163 +5886,274 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="14"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="61"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="14"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:15">
+    <row r="61" spans="1:15" s="1" customFormat="1">
+      <c r="A61" s="121">
+        <v>25</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" s="2">
+        <v>76173857</v>
+      </c>
+      <c r="H61" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61" s="9">
+        <v>18061296271</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61" s="9">
+        <v>15189977010</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="1" customFormat="1">
+      <c r="A62" s="122"/>
+      <c r="B62" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" s="2">
+        <v>76178939</v>
+      </c>
+      <c r="H62" s="124" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" s="9">
+        <v>18061296271</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N62" s="9">
+        <v>15189977010</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="1" customFormat="1">
+      <c r="A63" s="122"/>
+      <c r="B63" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" s="2">
+        <v>76175787</v>
+      </c>
+      <c r="H63" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="9">
+        <v>18061296271</v>
+      </c>
+      <c r="L63" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" s="9">
+        <v>15606685662</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="1" customFormat="1">
+      <c r="A64" s="123"/>
+      <c r="B64" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" s="124" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64" s="124" t="s">
+        <v>208</v>
+      </c>
+      <c r="G64" s="2">
+        <v>76179639</v>
+      </c>
+      <c r="H64" s="124" t="s">
+        <v>207</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" s="9">
+        <v>18061296271</v>
+      </c>
+      <c r="L64" s="124"/>
+      <c r="M64" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N64" s="9">
+        <v>18068172866</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="14"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="56"/>
+      <c r="M65" s="53"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:16">
       <c r="A66" s="14"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="56"/>
+      <c r="M66" s="53"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:16">
       <c r="A67" s="14"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="56"/>
+      <c r="M67" s="53"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="14"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="61"/>
+      <c r="P68" s="58"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="14"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="61"/>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69" s="58"/>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6465,7 +6170,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:16">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6482,7 +6187,7 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:16">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6499,7 +6204,7 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:16">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6516,7 +6221,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:16">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6533,7 +6238,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:16">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6550,7 +6255,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:16">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6567,7 +6272,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:16">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6584,7 +6289,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:16">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6601,7 +6306,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:16">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6618,7 +6323,7 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:16">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -10427,10 +10132,12 @@
       <c r="O303" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A61:A64"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -10440,22 +10147,20 @@
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
@@ -10466,7 +10171,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -10489,17 +10194,17 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="19">
+    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="A2" s="121">
         <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -10511,17 +10216,17 @@
       <c r="G2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
+      <c r="A3" s="123"/>
+      <c r="B3" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -10533,19 +10238,19 @@
       <c r="G3" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="19">
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
+      <c r="A4" s="121">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>187</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -10557,17 +10262,17 @@
       <c r="G4" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1">
+      <c r="A5" s="123"/>
+      <c r="B5" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>188</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -10579,543 +10284,558 @@
       <c r="G5" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1">
+      <c r="A6" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="128" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:8">
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:8">
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:8">
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:8">
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:8">
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:8">
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1">
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:8">
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="14.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:8">
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:8">
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:8">
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:8">
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:8">
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:8">
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:8">
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="25"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:8">
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="25"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:8">
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:8">
-      <c r="A27" s="28"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="29"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:8">
-      <c r="A28" s="28"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:8">
-      <c r="A29" s="28"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:8">
-      <c r="A30" s="28"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:8">
-      <c r="A31" s="28"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:8">
-      <c r="A32" s="28"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="29"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:8">
-      <c r="A34" s="28"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="29"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:8">
-      <c r="A35" s="28"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:8">
-      <c r="A36" s="28"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="29"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="28"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="29"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="28"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="29"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="28"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="29"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="28"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="29"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="28"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="28"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="28"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="28"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="28"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="28"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="28"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="28"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:8">
-      <c r="A49" s="28"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="29"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:8">
-      <c r="A50" s="28"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="29"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="28"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="28"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="28"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="28"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="28"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="28"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="28"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="28"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E5:E1048576">
@@ -11125,22 +10845,20 @@
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
@@ -11150,7 +10868,7 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -11167,7 +10885,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -11183,7 +10901,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -11199,7 +10917,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -11214,34 +10932,34 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
       <c r="B6" s="2"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="9"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:6">
       <c r="B7" s="2"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12"/>
@@ -11257,8 +10975,8 @@
       <c r="F10" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/周数据/《实施上线数据统计表》-杨磊.xlsx
+++ b/周数据/《实施上线数据统计表》-杨磊.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -146,7 +146,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>S</t>
@@ -156,7 +155,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AAS</t>
@@ -243,7 +241,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -254,7 +251,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -577,6 +573,33 @@
     <t>袁总</t>
   </si>
   <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（溧阳上河城店）</t>
+  </si>
+  <si>
+    <t>镇江</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（丹阳店）</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>小青森（宁波天一广场店）</t>
+  </si>
+  <si>
+    <t>南京路野餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>小沛公地锅鸡（南通海安店）</t>
+  </si>
+  <si>
+    <t>卓总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -592,9 +615,6 @@
     <t>销售人员</t>
   </si>
   <si>
-    <t>小青森（宁波天一广场店）</t>
-  </si>
-  <si>
     <t>5月28</t>
   </si>
   <si>
@@ -631,28 +651,35 @@
     <t>6月11号到店实施</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>加班内容</t>
-  </si>
-  <si>
-    <t>补贴方式</t>
-  </si>
-  <si>
-    <t>清明节值班和到拴宝水饺江浦店实施。</t>
-  </si>
-  <si>
-    <t>前往四道汤万达茂店实施</t>
-  </si>
-  <si>
-    <t>楼兰中央商场店驻店</t>
+    <t>小青森（常州武进万达广场店）</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6月</t>
     </r>
     <r>
@@ -660,95 +687,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇江</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>京茶山手作茶物（溧阳上河城店）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>京茶山手作茶物（丹阳店）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>小青森（宁波天一广场店）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>小青森</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>青森食品销售中心</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈总</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京路野餐饮管理有限公司</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>小沛公地锅鸡（南通海安店）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>小沛公地锅鸡</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>小青森（常州武进万达广场店）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,17 +702,41 @@
       </rPr>
       <t>号到店实施</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>加班内容</t>
+  </si>
+  <si>
+    <t>补贴方式</t>
+  </si>
+  <si>
+    <t>清明节值班和到拴宝水饺江浦店实施。</t>
+  </si>
+  <si>
+    <t>前往四道汤万达茂店实施</t>
+  </si>
+  <si>
+    <t>楼兰中央商场店驻店</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +772,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -831,7 +805,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -846,7 +819,6 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -856,7 +828,6 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -866,7 +837,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -874,9 +844,8 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <color theme="1" tint="0.0499893185216834"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -885,7 +854,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -895,7 +863,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -904,40 +871,161 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,13 +1034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,13 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,19 +1088,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817346722"/>
+        <fgColor theme="7" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,8 +1110,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1413,34 +1687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1448,7 +1694,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1458,6 +1704,47 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1523,25 +1810,254 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,6 +2115,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,13 +2127,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1632,13 +2163,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1659,22 +2190,22 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1692,10 +2223,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1704,34 +2238,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1756,7 +2368,7 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1781,15 +2393,15 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1814,7 +2426,11 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1822,160 +2438,104 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2237,15 +2797,15 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2261,1069 +2821,1069 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:9">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="97" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" ht="21" spans="1:9">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="104" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="123"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:9">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="113" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="124" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="105"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="59" t="s">
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="120"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="125"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91">
         <v>4</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="92">
         <v>5</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66">
+      <c r="E5" s="93"/>
+      <c r="F5" s="94">
         <v>5</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68">
+      <c r="G5" s="95"/>
+      <c r="H5" s="96">
         <f t="shared" ref="H5:H15" si="0">E5/F5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="126">
         <f t="shared" ref="I5:I15" si="1">F5/C5</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98">
         <v>3</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="99">
         <v>6</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73">
+      <c r="E6" s="100"/>
+      <c r="F6" s="101">
         <v>6</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75">
+      <c r="G6" s="102"/>
+      <c r="H6" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="127">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70">
+      <c r="B7" s="97"/>
+      <c r="C7" s="98">
         <v>1</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="99">
         <v>4</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73">
+      <c r="E7" s="100"/>
+      <c r="F7" s="101">
         <v>4</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75">
+      <c r="G7" s="102"/>
+      <c r="H7" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="127">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70">
+      <c r="B8" s="97"/>
+      <c r="C8" s="98">
         <v>5</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="99">
         <v>9</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73">
+      <c r="E8" s="100"/>
+      <c r="F8" s="101">
         <v>9</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75">
+      <c r="G8" s="102"/>
+      <c r="H8" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="92">
+      <c r="I8" s="127">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="77" t="s">
+    <row r="9" ht="14.25" spans="1:9">
+      <c r="A9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79">
+      <c r="B9" s="106"/>
+      <c r="C9" s="107">
         <v>8</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="108">
         <v>16</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82">
+      <c r="E9" s="109"/>
+      <c r="F9" s="110">
         <v>16</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84">
+      <c r="G9" s="111"/>
+      <c r="H9" s="112">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="128">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68" t="e">
+      <c r="C10" s="115"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="91" t="e">
+      <c r="I10" s="126" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="107"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="117">
         <v>3</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75" t="e">
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="107"/>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="116"/>
+      <c r="B12" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="71">
+      <c r="C12" s="117"/>
+      <c r="D12" s="99">
         <v>5</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73">
+      <c r="E12" s="100"/>
+      <c r="F12" s="101">
         <v>5</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75">
+      <c r="G12" s="102"/>
+      <c r="H12" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="92" t="e">
+      <c r="I12" s="127" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="107"/>
-      <c r="B13" s="85" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="117">
         <v>2</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="99">
         <v>3</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="100">
         <v>4</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="101">
         <v>7</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="102">
         <v>0</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="103">
         <f t="shared" si="0"/>
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="I13" s="92">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I13" s="127">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="107"/>
-      <c r="B14" s="88" t="s">
+      <c r="A14" s="116"/>
+      <c r="B14" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="117">
         <v>2</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="99">
         <v>0</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="100">
         <v>0</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="101">
         <f t="shared" ref="F14:F15" si="2">D14+E14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="102">
         <v>3</v>
       </c>
-      <c r="H14" s="75" t="e">
+      <c r="H14" s="103" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="129"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82">
+    <row r="15" ht="14.25" spans="1:9">
+      <c r="A15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="83">
+      <c r="G15" s="111">
         <f t="shared" ref="G15" si="3">C15-F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="84" t="e">
+      <c r="H15" s="112" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="93" t="e">
+      <c r="I15" s="128" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="85">
+      <c r="B16" s="114">
         <v>23</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="115">
         <v>0</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="92">
         <v>1</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="93">
         <v>0</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="94">
         <v>1</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="95">
         <v>2</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="96">
         <f t="shared" ref="H16:H45" si="4">E16/F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="91" t="e">
+      <c r="I16" s="126" t="e">
         <f t="shared" ref="I16:I45" si="5">F16/C16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="107"/>
-      <c r="B17" s="88">
+      <c r="A17" s="116"/>
+      <c r="B17" s="118">
         <v>24</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="117">
         <v>1</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="99">
         <v>0</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73">
+      <c r="E17" s="100"/>
+      <c r="F17" s="101">
         <f t="shared" ref="F17:F45" si="6">D17+E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="102">
         <f t="shared" ref="G17:G45" si="7">C17-F17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="75" t="e">
+      <c r="H17" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="127">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="107"/>
-      <c r="B18" s="88">
+      <c r="A18" s="116"/>
+      <c r="B18" s="118">
         <v>25</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="117">
         <v>0</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="99">
         <v>1</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="100">
         <v>3</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="101">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="102">
         <v>1</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="103">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="I18" s="92" t="e">
+      <c r="I18" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="107"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73">
+      <c r="A19" s="116"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="75" t="e">
+      <c r="H19" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="92" t="e">
+      <c r="I19" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="107"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73">
+      <c r="A20" s="116"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="75" t="e">
+      <c r="H20" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="92" t="e">
+      <c r="I20" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="108"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82">
+    <row r="21" ht="14.25" spans="1:9">
+      <c r="A21" s="122"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="83">
+      <c r="G21" s="111">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="84" t="e">
+      <c r="H21" s="112" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="93" t="e">
+      <c r="I21" s="128" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="107"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66">
+      <c r="A22" s="116"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="95">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H22" s="68" t="e">
+      <c r="H22" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="91" t="e">
+      <c r="I22" s="126" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="107"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73">
+      <c r="A23" s="116"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H23" s="75" t="e">
+      <c r="H23" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="92" t="e">
+      <c r="I23" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="107"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73">
+      <c r="A24" s="116"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G24" s="74">
+      <c r="G24" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H24" s="75" t="e">
+      <c r="H24" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="92" t="e">
+      <c r="I24" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="107"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73">
+      <c r="A25" s="116"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G25" s="74">
+      <c r="G25" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H25" s="75" t="e">
+      <c r="H25" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="92" t="e">
+      <c r="I25" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="107"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73">
+      <c r="A26" s="116"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G26" s="74">
+      <c r="G26" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H26" s="75" t="e">
+      <c r="H26" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="92" t="e">
+      <c r="I26" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="108"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82">
+    <row r="27" ht="14.25" spans="1:9">
+      <c r="A27" s="122"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="110">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G27" s="83">
+      <c r="G27" s="111">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H27" s="84" t="e">
+      <c r="H27" s="112" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="93" t="e">
+      <c r="I27" s="128" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="107"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66">
+      <c r="A28" s="116"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="95">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H28" s="68" t="e">
+      <c r="H28" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="91" t="e">
+      <c r="I28" s="126" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="107"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73">
+      <c r="A29" s="116"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G29" s="74">
+      <c r="G29" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H29" s="75" t="e">
+      <c r="H29" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="92" t="e">
+      <c r="I29" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="107"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73">
+      <c r="A30" s="116"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G30" s="74">
+      <c r="G30" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H30" s="75" t="e">
+      <c r="H30" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="92" t="e">
+      <c r="I30" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="107"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73">
+      <c r="A31" s="116"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G31" s="74">
+      <c r="G31" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H31" s="75" t="e">
+      <c r="H31" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="92" t="e">
+      <c r="I31" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="107"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73">
+      <c r="A32" s="116"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G32" s="74">
+      <c r="G32" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H32" s="75" t="e">
+      <c r="H32" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="92" t="e">
+      <c r="I32" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="108"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82">
+    <row r="33" ht="14.25" spans="1:9">
+      <c r="A33" s="122"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G33" s="83">
+      <c r="G33" s="111">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H33" s="84" t="e">
+      <c r="H33" s="112" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="93" t="e">
+      <c r="I33" s="128" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="107"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66">
+      <c r="A34" s="116"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="95">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H34" s="68" t="e">
+      <c r="H34" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="91" t="e">
+      <c r="I34" s="126" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="107"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73">
+      <c r="A35" s="116"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G35" s="74">
+      <c r="G35" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H35" s="75" t="e">
+      <c r="H35" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="92" t="e">
+      <c r="I35" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="107"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="73">
+      <c r="A36" s="116"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G36" s="74">
+      <c r="G36" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H36" s="75" t="e">
+      <c r="H36" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="92" t="e">
+      <c r="I36" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="107"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73">
+      <c r="A37" s="116"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G37" s="74">
+      <c r="G37" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="75" t="e">
+      <c r="H37" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="92" t="e">
+      <c r="I37" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="107"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73">
+      <c r="A38" s="116"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G38" s="74">
+      <c r="G38" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H38" s="75" t="e">
+      <c r="H38" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="92" t="e">
+      <c r="I38" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="108"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="82">
+    <row r="39" ht="14.25" spans="1:9">
+      <c r="A39" s="122"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="110">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G39" s="111">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H39" s="84" t="e">
+      <c r="H39" s="112" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="93" t="e">
+      <c r="I39" s="128" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="107"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66">
+      <c r="A40" s="116"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="95">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H40" s="68" t="e">
+      <c r="H40" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="91" t="e">
+      <c r="I40" s="126" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="107"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="73">
+      <c r="A41" s="116"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G41" s="74">
+      <c r="G41" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H41" s="75" t="e">
+      <c r="H41" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="92" t="e">
+      <c r="I41" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="107"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="73">
+      <c r="A42" s="116"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G42" s="74">
+      <c r="G42" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H42" s="75" t="e">
+      <c r="H42" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="92" t="e">
+      <c r="I42" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="107"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="73">
+      <c r="A43" s="116"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G43" s="74">
+      <c r="G43" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H43" s="75" t="e">
+      <c r="H43" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="92" t="e">
+      <c r="I43" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="107"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="73">
+      <c r="A44" s="116"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G44" s="74">
+      <c r="G44" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H44" s="75" t="e">
+      <c r="H44" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="92" t="e">
+      <c r="I44" s="127" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="108"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="82">
+    <row r="45" ht="14.25" spans="1:9">
+      <c r="A45" s="122"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="110">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G45" s="111">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H45" s="84" t="e">
+      <c r="H45" s="112" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="93" t="e">
+      <c r="I45" s="128" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A15"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
@@ -3331,17 +3891,18 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -3360,58 +3921,58 @@
     <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="40" customFormat="1" ht="27">
-      <c r="A1" s="42" t="s">
+    <row r="1" s="45" customFormat="1" ht="28.5" spans="1:15">
+      <c r="A1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="2">
         <v>51</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="50">
         <v>43073</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3454,11 +4015,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="2">
         <v>52</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="50">
         <v>43095</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3501,11 +4062,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="2">
         <v>52</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="50">
         <v>43077</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3548,11 +4109,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="50">
         <v>43105</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3595,11 +4156,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="50">
         <v>43105</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3642,11 +4203,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -3661,11 +4222,11 @@
       <c r="N7" s="9"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -3680,11 +4241,11 @@
       <c r="N8" s="9"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:15">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="9"/>
@@ -3725,11 +4286,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:15">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="9"/>
@@ -3770,11 +4331,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:15">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="9"/>
@@ -3815,11 +4376,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="9"/>
@@ -3860,11 +4421,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="50" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="2"/>
@@ -3905,7 +4466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="12"/>
       <c r="C14" s="2"/>
@@ -3922,9 +4483,9 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1">
+    <row r="15" s="1" customFormat="1" spans="1:15">
       <c r="A15" s="2"/>
-      <c r="B15" s="46"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -3939,11 +4500,11 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" spans="1:15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="51">
         <v>43187</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -3986,11 +4547,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1">
+    <row r="17" s="1" customFormat="1" spans="1:15">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="51">
         <v>43187</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -4033,11 +4594,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1">
+    <row r="18" s="1" customFormat="1" spans="1:15">
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="51">
         <v>43187</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4080,11 +4641,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1">
+    <row r="19" s="1" customFormat="1" spans="1:15">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="51">
         <v>43187</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -4127,11 +4688,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1">
+    <row r="20" s="1" customFormat="1" spans="1:15">
       <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="51">
         <v>43187</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -4174,11 +4735,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1">
+    <row r="21" s="1" customFormat="1" spans="1:15">
       <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="51">
         <v>43190</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -4221,11 +4782,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1">
+    <row r="22" s="1" customFormat="1" spans="1:15">
       <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="51">
         <v>43190</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -4268,11 +4829,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1">
+    <row r="23" s="1" customFormat="1" spans="1:15">
       <c r="A23" s="2">
         <v>13</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="51">
         <v>43190</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -4317,7 +4878,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3"/>
-      <c r="B24" s="47"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4332,11 +4893,11 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1">
+    <row r="25" s="1" customFormat="1" spans="1:15">
       <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="51">
         <v>43208</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -4354,7 +4915,7 @@
       <c r="G25" s="2">
         <v>76153979</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="53" t="s">
         <v>101</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -4379,11 +4940,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1">
+    <row r="26" s="1" customFormat="1" spans="1:15">
       <c r="A26" s="2">
         <v>16</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="51">
         <v>43208</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4401,7 +4962,7 @@
       <c r="G26" s="2">
         <v>76156173</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="53" t="s">
         <v>103</v>
       </c>
       <c r="I26" s="9" t="s">
@@ -4426,11 +4987,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1">
+    <row r="27" s="1" customFormat="1" spans="1:15">
       <c r="A27" s="2">
         <v>16</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="51">
         <v>43208</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -4473,11 +5034,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1">
+    <row r="28" s="1" customFormat="1" spans="1:15">
       <c r="A28" s="2">
         <v>16</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="51">
         <v>43208</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -4495,7 +5056,7 @@
       <c r="G28" s="2">
         <v>76152838</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="53" t="s">
         <v>108</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -4520,11 +5081,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1">
+    <row r="29" s="1" customFormat="1" spans="1:15">
       <c r="A29" s="2">
         <v>16</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="51">
         <v>43208</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -4542,7 +5103,7 @@
       <c r="G29" s="2">
         <v>76152851</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="53" t="s">
         <v>110</v>
       </c>
       <c r="I29" s="9" t="s">
@@ -4560,18 +5121,18 @@
       <c r="M29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="49">
+      <c r="N29" s="54">
         <v>18851058032</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1">
+    <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="2">
         <v>16</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="51">
         <v>43208</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4589,7 +5150,7 @@
       <c r="G30" s="2">
         <v>76138868</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="53" t="s">
         <v>113</v>
       </c>
       <c r="I30" s="9" t="s">
@@ -4614,11 +5175,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1">
+    <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="2">
         <v>16</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="51">
         <v>43208</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -4636,7 +5197,7 @@
       <c r="G31" s="9">
         <v>76128369</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="53" t="s">
         <v>115</v>
       </c>
       <c r="I31" s="9" t="s">
@@ -4661,11 +5222,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1">
+    <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="2">
         <v>16</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="51">
         <v>43208</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -4683,7 +5244,7 @@
       <c r="G32" s="9">
         <v>76128810</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="53" t="s">
         <v>116</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -4708,11 +5269,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1">
+    <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="2">
         <v>16</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="51">
         <v>43208</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -4730,7 +5291,7 @@
       <c r="G33" s="9">
         <v>76126516</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="53" t="s">
         <v>117</v>
       </c>
       <c r="I33" s="9" t="s">
@@ -4755,11 +5316,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1">
+    <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="2">
         <v>16</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="51">
         <v>43208</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -4777,7 +5338,7 @@
       <c r="G34" s="9">
         <v>76123630</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="53" t="s">
         <v>118</v>
       </c>
       <c r="I34" s="9" t="s">
@@ -4802,11 +5363,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="2">
         <v>16</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="51">
         <v>43208</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -4824,7 +5385,7 @@
       <c r="G35" s="9">
         <v>76153981</v>
       </c>
-      <c r="H35" s="48" t="s">
+      <c r="H35" s="53" t="s">
         <v>119</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -4849,11 +5410,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1">
+    <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="2">
         <v>16</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="51">
         <v>43208</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -4871,7 +5432,7 @@
       <c r="G36" s="9">
         <v>76158096</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="53" t="s">
         <v>120</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -4896,11 +5457,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1">
+    <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="2">
         <v>16</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="51">
         <v>43208</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -4918,7 +5479,7 @@
       <c r="G37" s="2">
         <v>76159921</v>
       </c>
-      <c r="H37" s="48" t="s">
+      <c r="H37" s="53" t="s">
         <v>121</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -4943,11 +5504,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1">
+    <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="2">
         <v>16</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="51">
         <v>43208</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -4965,7 +5526,7 @@
       <c r="G38" s="2">
         <v>76160131</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="53" t="s">
         <v>122</v>
       </c>
       <c r="I38" s="9" t="s">
@@ -4990,11 +5551,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1">
+    <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="2">
         <v>16</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="51">
         <v>43208</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -5030,16 +5591,16 @@
       <c r="M39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N39" s="49">
+      <c r="N39" s="54">
         <v>13675152232</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1">
+    <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="2"/>
-      <c r="B40" s="46"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -5054,11 +5615,11 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1">
+    <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="2">
         <v>17</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="51">
         <v>43215</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -5101,11 +5662,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1">
+    <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="2">
         <v>18</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -5120,11 +5681,11 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1">
+    <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="2">
         <v>19</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -5139,11 +5700,11 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1">
-      <c r="A44" s="121">
+    <row r="44" s="1" customFormat="1" spans="1:15">
+      <c r="A44" s="19">
         <v>20</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="51">
         <v>43235</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -5161,7 +5722,7 @@
       <c r="G44" s="2">
         <v>76162827</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="H44" s="54" t="s">
         <v>135</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -5187,8 +5748,8 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="122"/>
-      <c r="B45" s="46">
+      <c r="A45" s="55"/>
+      <c r="B45" s="51">
         <v>43235</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -5232,8 +5793,8 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="122"/>
-      <c r="B46" s="46">
+      <c r="A46" s="55"/>
+      <c r="B46" s="51">
         <v>43235</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -5277,8 +5838,8 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="122"/>
-      <c r="B47" s="46">
+      <c r="A47" s="55"/>
+      <c r="B47" s="51">
         <v>43235</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -5321,54 +5882,54 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="41" customFormat="1">
-      <c r="A48" s="122"/>
-      <c r="B48" s="50">
+    <row r="48" s="46" customFormat="1" spans="1:15">
+      <c r="A48" s="55"/>
+      <c r="B48" s="56">
         <v>43235</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="57">
         <v>76121892</v>
       </c>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="51" t="s">
+      <c r="I48" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="J48" s="51" t="s">
+      <c r="J48" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="K48" s="51">
+      <c r="K48" s="57">
         <v>18061296271</v>
       </c>
-      <c r="L48" s="51" t="s">
+      <c r="L48" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="M48" s="51" t="s">
+      <c r="M48" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="N48" s="56">
+      <c r="N48" s="62">
         <v>13182829987</v>
       </c>
-      <c r="O48" s="51" t="s">
+      <c r="O48" s="57" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="122"/>
-      <c r="B49" s="46">
+      <c r="A49" s="55"/>
+      <c r="B49" s="51">
         <v>43235</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -5412,8 +5973,8 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="123"/>
-      <c r="B50" s="46">
+      <c r="A50" s="23"/>
+      <c r="B50" s="51">
         <v>43235</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -5457,10 +6018,10 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="121">
+      <c r="A51" s="19">
         <v>21</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="51">
         <v>43243</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -5504,8 +6065,8 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="122"/>
-      <c r="B52" s="46">
+      <c r="A52" s="55"/>
+      <c r="B52" s="51">
         <v>43243</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -5549,8 +6110,8 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="122"/>
-      <c r="B53" s="46">
+      <c r="A53" s="55"/>
+      <c r="B53" s="51">
         <v>43243</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -5594,8 +6155,8 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="122"/>
-      <c r="B54" s="46">
+      <c r="A54" s="55"/>
+      <c r="B54" s="51">
         <v>43243</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -5639,8 +6200,8 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="122"/>
-      <c r="B55" s="46">
+      <c r="A55" s="55"/>
+      <c r="B55" s="51">
         <v>43243</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -5684,8 +6245,8 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="122"/>
-      <c r="B56" s="46">
+      <c r="A56" s="55"/>
+      <c r="B56" s="51">
         <v>43243</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -5729,8 +6290,8 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="122"/>
-      <c r="B57" s="46">
+      <c r="A57" s="55"/>
+      <c r="B57" s="51">
         <v>43243</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -5774,8 +6335,8 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="123"/>
-      <c r="B58" s="46">
+      <c r="A58" s="23"/>
+      <c r="B58" s="51">
         <v>43243</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -5822,28 +6383,28 @@
       <c r="A59" s="2">
         <v>22</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="57"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="63"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" s="1" customFormat="1">
+    <row r="60" s="1" customFormat="1" spans="1:15">
       <c r="A60" s="2">
         <v>23</v>
       </c>
-      <c r="B60" s="46">
+      <c r="B60" s="51">
         <v>43257</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -5886,12 +6447,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="1" customFormat="1">
-      <c r="A61" s="121">
+    <row r="61" s="1" customFormat="1" spans="1:15">
+      <c r="A61" s="19">
         <v>25</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>196</v>
+      <c r="B61" s="51">
+        <v>43271</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>80</v>
@@ -5903,13 +6464,13 @@
         <v>94</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="G61" s="2">
         <v>76173857</v>
       </c>
-      <c r="H61" s="124" t="s">
-        <v>199</v>
+      <c r="H61" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>42</v>
@@ -5933,10 +6494,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="1" customFormat="1">
-      <c r="A62" s="122"/>
-      <c r="B62" s="46" t="s">
-        <v>196</v>
+    <row r="62" s="1" customFormat="1" spans="1:15">
+      <c r="A62" s="55"/>
+      <c r="B62" s="51">
+        <v>43271</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>80</v>
@@ -5948,13 +6509,13 @@
         <v>94</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G62" s="2">
         <v>76178939</v>
       </c>
-      <c r="H62" s="124" t="s">
-        <v>200</v>
+      <c r="H62" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>42</v>
@@ -5978,28 +6539,28 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="1" customFormat="1">
-      <c r="A63" s="122"/>
-      <c r="B63" s="46" t="s">
-        <v>196</v>
+    <row r="63" s="1" customFormat="1" spans="1:15">
+      <c r="A63" s="55"/>
+      <c r="B63" s="51">
+        <v>43271</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="F63" s="124" t="s">
-        <v>202</v>
+      <c r="D63" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="G63" s="2">
         <v>76175787</v>
       </c>
-      <c r="H63" s="124" t="s">
-        <v>201</v>
+      <c r="H63" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>42</v>
@@ -6010,8 +6571,8 @@
       <c r="K63" s="9">
         <v>18061296271</v>
       </c>
-      <c r="L63" s="124" t="s">
-        <v>205</v>
+      <c r="L63" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>50</v>
@@ -6023,28 +6584,28 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="1" customFormat="1">
-      <c r="A64" s="123"/>
-      <c r="B64" s="126" t="s">
-        <v>196</v>
+    <row r="64" s="1" customFormat="1" spans="1:15">
+      <c r="A64" s="23"/>
+      <c r="B64" s="51">
+        <v>43271</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="E64" s="124" t="s">
-        <v>209</v>
-      </c>
-      <c r="F64" s="124" t="s">
-        <v>208</v>
+      <c r="D64" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="G64" s="2">
         <v>76179639</v>
       </c>
-      <c r="H64" s="124" t="s">
-        <v>207</v>
+      <c r="H64" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>42</v>
@@ -6055,7 +6616,9 @@
       <c r="K64" s="9">
         <v>18061296271</v>
       </c>
-      <c r="L64" s="124"/>
+      <c r="L64" s="25" t="s">
+        <v>179</v>
+      </c>
       <c r="M64" s="9" t="s">
         <v>50</v>
       </c>
@@ -6066,94 +6629,94 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:15">
       <c r="A65" s="14"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="53"/>
+      <c r="M65" s="59"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:15">
       <c r="A66" s="14"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="53"/>
+      <c r="M66" s="59"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:15">
       <c r="A67" s="14"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="53"/>
+      <c r="M67" s="59"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="14"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="58"/>
+      <c r="P68" s="65"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="14"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="58"/>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="P69" s="65"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6170,7 +6733,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6187,7 +6750,7 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6204,7 +6767,7 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6221,7 +6784,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6238,7 +6801,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6255,7 +6818,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6272,7 +6835,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6289,7 +6852,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6306,7 +6869,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6323,7 +6886,7 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -10137,7 +10700,6 @@
     <mergeCell ref="A51:A58"/>
     <mergeCell ref="A61:A64"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -10147,20 +10709,22 @@
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
@@ -10171,7 +10735,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -10179,663 +10743,662 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="121">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="19">
         <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>178</v>
+      <c r="C2" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
-      <c r="A3" s="123"/>
-      <c r="B3" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1">
-      <c r="A4" s="121">
+        <v>194</v>
+      </c>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="19">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1">
-      <c r="A5" s="123"/>
-      <c r="B5" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1">
+        <v>194</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="2">
         <v>25</v>
       </c>
-      <c r="B6" s="124" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="127" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="128" t="s">
-        <v>212</v>
+      <c r="B6" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1">
+        <v>189</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:8">
       <c r="A7" s="2"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1">
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1">
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1">
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:8">
       <c r="A12" s="2"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1">
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1">
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1">
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="14.25">
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A16" s="2"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1">
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1">
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:8">
       <c r="A18" s="2"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1">
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:8">
       <c r="A19" s="2"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1">
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:8">
       <c r="A20" s="2"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1">
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:8">
       <c r="A21" s="2"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1">
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:8">
       <c r="A22" s="2"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1">
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:8">
       <c r="A23" s="2"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1">
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:8">
       <c r="A24" s="2"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1">
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:8">
       <c r="A25" s="2"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="21"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="27"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:8">
+      <c r="A27" s="31"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:8">
+      <c r="A28" s="31"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:8">
+      <c r="A29" s="31"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:8">
+      <c r="A30" s="31"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:8">
+      <c r="A31" s="31"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:8">
+      <c r="A32" s="31"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="27"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:8">
+      <c r="A34" s="31"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:8">
+      <c r="A35" s="31"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:8">
+      <c r="A36" s="31"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="26"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="27"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="26"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="27"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="26"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="27"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="26"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="27"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="26"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="26"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="26"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="26"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="26"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="26"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="26"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="26"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="27"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="27"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:8">
+      <c r="A49" s="31"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:8">
+      <c r="A50" s="31"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="32"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="26"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="26"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="26"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="26"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="26"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="26"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="26"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="26"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E5:E1048576">
@@ -10845,20 +11408,22 @@
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
@@ -10868,24 +11433,24 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -10896,12 +11461,12 @@
         <v>43196</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -10912,12 +11477,12 @@
         <v>43247</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -10928,38 +11493,38 @@
         <v>43260</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="2:6">
       <c r="B6" s="2"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="9"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="2:5">
       <c r="B7" s="2"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12"/>
@@ -10975,8 +11540,8 @@
       <c r="F10" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《实施上线数据统计表》-杨磊.xlsx
+++ b/周数据/《实施上线数据统计表》-杨磊.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="230">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -146,6 +146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>S</t>
@@ -155,6 +156,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AAS</t>
@@ -241,6 +243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -251,6 +254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -573,48 +577,24 @@
     <t>袁总</t>
   </si>
   <si>
-    <t>常州</t>
-  </si>
-  <si>
-    <t>京茶山手作茶物（溧阳上河城店）</t>
-  </si>
-  <si>
-    <t>镇江</t>
-  </si>
-  <si>
-    <t>京茶山手作茶物（丹阳店）</t>
-  </si>
-  <si>
-    <t>宁波</t>
+    <t>立项日期</t>
+  </si>
+  <si>
+    <t>未完成原因</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>上线模块</t>
+  </si>
+  <si>
+    <t>销售人员</t>
   </si>
   <si>
     <t>小青森（宁波天一广场店）</t>
   </si>
   <si>
-    <t>南京路野餐饮管理有限公司</t>
-  </si>
-  <si>
-    <t>小沛公地锅鸡（南通海安店）</t>
-  </si>
-  <si>
-    <t>卓总</t>
-  </si>
-  <si>
-    <t>立项日期</t>
-  </si>
-  <si>
-    <t>未完成原因</t>
-  </si>
-  <si>
-    <t>项目类型</t>
-  </si>
-  <si>
-    <t>上线模块</t>
-  </si>
-  <si>
-    <t>销售人员</t>
-  </si>
-  <si>
     <t>5月28</t>
   </si>
   <si>
@@ -651,35 +631,28 @@
     <t>6月11号到店实施</t>
   </si>
   <si>
-    <t>小青森（常州武进万达广场店）</t>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>加班内容</t>
+  </si>
+  <si>
+    <t>补贴方式</t>
+  </si>
+  <si>
+    <t>清明节值班和到拴宝水饺江浦店实施。</t>
+  </si>
+  <si>
+    <t>前往四道汤万达茂店实施</t>
+  </si>
+  <si>
+    <t>楼兰中央商场店驻店</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>6月</t>
     </r>
     <r>
@@ -687,6 +660,95 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（溧阳上河城店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（丹阳店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青森（宁波天一广场店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青森</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>青森食品销售中心</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈总</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京路野餐饮管理有限公司</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沛公地锅鸡（南通海安店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沛公地锅鸡</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青森（常州武进万达广场店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -697,46 +759,102 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>号到店实施</t>
     </r>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>加班内容</t>
-  </si>
-  <si>
-    <t>补贴方式</t>
-  </si>
-  <si>
-    <t>清明节值班和到拴宝水饺江浦店实施。</t>
-  </si>
-  <si>
-    <t>前往四道汤万达茂店实施</t>
-  </si>
-  <si>
-    <t>楼兰中央商场店驻店</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月27</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月27</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰餐厅(南京秦淮中央商场店)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰新疆主题餐厅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州楼兰餐饮管理有限公司</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>王总</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>至善天玺餐饮管理有限公司</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻町常州武进汽车城店</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻町</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳房子显示未上线</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖如梦</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（朝天宫堂子街店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山朝天宫店实施及培训</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +867,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -756,6 +875,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -764,29 +884,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -794,6 +905,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -805,6 +917,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -819,6 +932,7 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -828,6 +942,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -837,6 +952,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -844,8 +960,9 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -854,6 +971,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -863,6 +981,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -871,161 +990,40 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,13 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,13 +1056,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,19 +1086,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399914548173467"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,194 +1108,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1687,6 +1499,34 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1694,7 +1534,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1704,9 +1544,65 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1716,348 +1612,22 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2115,9 +1685,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,25 +1694,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2163,13 +1718,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -2190,22 +1745,22 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2223,13 +1778,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2238,112 +1790,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2368,7 +1842,7 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2393,15 +1867,15 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2426,11 +1900,7 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2438,104 +1908,163 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2797,16 +2326,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2821,195 +2350,195 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:9">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:9" ht="64.5" customHeight="1">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" ht="21" spans="1:9">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="123"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="74" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
+      <c r="A3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="110"/>
+      <c r="F3" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="112"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="125"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="126"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63">
         <v>4</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="64">
         <v>5</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94">
+      <c r="E5" s="65"/>
+      <c r="F5" s="66">
         <v>5</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="96">
+      <c r="G5" s="67"/>
+      <c r="H5" s="68">
         <f t="shared" ref="H5:H15" si="0">E5/F5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="126">
+      <c r="I5" s="91">
         <f t="shared" ref="I5:I15" si="1">F5/C5</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98">
+      <c r="B6" s="69"/>
+      <c r="C6" s="70">
         <v>3</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="71">
         <v>6</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101">
+      <c r="E6" s="72"/>
+      <c r="F6" s="73">
         <v>6</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="103">
+      <c r="G6" s="74"/>
+      <c r="H6" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="127">
+      <c r="I6" s="92">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="98">
+      <c r="B7" s="69"/>
+      <c r="C7" s="70">
         <v>1</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="71">
         <v>4</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101">
+      <c r="E7" s="72"/>
+      <c r="F7" s="73">
         <v>4</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="103">
+      <c r="G7" s="74"/>
+      <c r="H7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="127">
+      <c r="I7" s="92">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98">
+      <c r="B8" s="69"/>
+      <c r="C8" s="70">
         <v>5</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="71">
         <v>9</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101">
+      <c r="E8" s="72"/>
+      <c r="F8" s="73">
         <v>9</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103">
+      <c r="G8" s="74"/>
+      <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="127">
+      <c r="I8" s="92">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:9">
-      <c r="A9" s="105" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107">
+      <c r="B9" s="78"/>
+      <c r="C9" s="79">
         <v>8</v>
       </c>
-      <c r="D9" s="108">
+      <c r="D9" s="80">
         <v>16</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110">
+      <c r="E9" s="81"/>
+      <c r="F9" s="82">
         <v>16</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112">
+      <c r="G9" s="83"/>
+      <c r="H9" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="128">
+      <c r="I9" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3018,856 +2547,863 @@
       <c r="A10" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96" t="e">
+      <c r="C10" s="86"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="126" t="e">
+      <c r="I10" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="116"/>
-      <c r="B11" s="114" t="s">
+      <c r="A11" s="99"/>
+      <c r="B11" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="87">
         <v>3</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103" t="e">
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="127">
+      <c r="I11" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="116"/>
-      <c r="B12" s="114" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="99">
+      <c r="C12" s="87"/>
+      <c r="D12" s="71">
         <v>5</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101">
+      <c r="E12" s="72"/>
+      <c r="F12" s="73">
         <v>5</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103">
+      <c r="G12" s="74"/>
+      <c r="H12" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="127" t="e">
+      <c r="I12" s="92" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="116"/>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="99"/>
+      <c r="B13" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="87">
         <v>2</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="71">
         <v>3</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="72">
         <v>4</v>
       </c>
-      <c r="F13" s="101">
+      <c r="F13" s="73">
         <v>7</v>
       </c>
-      <c r="G13" s="102">
+      <c r="G13" s="74">
         <v>0</v>
       </c>
-      <c r="H13" s="103">
+      <c r="H13" s="75">
         <f t="shared" si="0"/>
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I13" s="127">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I13" s="92">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="116"/>
-      <c r="B14" s="118" t="s">
+      <c r="A14" s="99"/>
+      <c r="B14" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="87">
         <v>2</v>
       </c>
-      <c r="D14" s="99">
+      <c r="D14" s="71">
         <v>0</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="72">
         <v>0</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="73">
         <f t="shared" ref="F14:F15" si="2">D14+E14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="102">
+      <c r="G14" s="74">
         <v>3</v>
       </c>
-      <c r="H14" s="103" t="e">
+      <c r="H14" s="75" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="127">
+      <c r="I14" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:9">
-      <c r="A15" s="119"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110">
+    <row r="15" spans="1:9">
+      <c r="A15" s="114"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="83">
         <f t="shared" ref="G15" si="3">C15-F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="112" t="e">
+      <c r="H15" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="128" t="e">
+      <c r="I15" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="114">
+      <c r="B16" s="85">
         <v>23</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="86">
         <v>0</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="64">
         <v>1</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="65">
         <v>0</v>
       </c>
-      <c r="F16" s="94">
+      <c r="F16" s="66">
         <v>1</v>
       </c>
-      <c r="G16" s="95">
+      <c r="G16" s="67">
         <v>2</v>
       </c>
-      <c r="H16" s="96">
+      <c r="H16" s="68">
         <f t="shared" ref="H16:H45" si="4">E16/F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="126" t="e">
+      <c r="I16" s="91" t="e">
         <f t="shared" ref="I16:I45" si="5">F16/C16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="116"/>
-      <c r="B17" s="118">
+      <c r="A17" s="99"/>
+      <c r="B17" s="88">
         <v>24</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="87">
         <v>1</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="71">
         <v>0</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101">
+      <c r="E17" s="72"/>
+      <c r="F17" s="73">
         <f t="shared" ref="F17:F45" si="6">D17+E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="102">
+      <c r="G17" s="74">
         <f t="shared" ref="G17:G45" si="7">C17-F17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="103" t="e">
+      <c r="H17" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="127">
+      <c r="I17" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="116"/>
-      <c r="B18" s="118">
+      <c r="A18" s="99"/>
+      <c r="B18" s="88">
         <v>25</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="87">
         <v>0</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="71">
         <v>1</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E18" s="72">
         <v>3</v>
       </c>
-      <c r="F18" s="101">
+      <c r="F18" s="73">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G18" s="102">
+      <c r="G18" s="74">
         <v>1</v>
       </c>
-      <c r="H18" s="103">
+      <c r="H18" s="75">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="I18" s="127" t="e">
+      <c r="I18" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="116"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101">
+      <c r="A19" s="99"/>
+      <c r="B19" s="88">
+        <v>26</v>
+      </c>
+      <c r="C19" s="87">
+        <v>0</v>
+      </c>
+      <c r="D19" s="71">
+        <v>2</v>
+      </c>
+      <c r="E19" s="72">
+        <v>0</v>
+      </c>
+      <c r="F19" s="73">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="74">
+        <v>2</v>
+      </c>
+      <c r="H19" s="75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="92" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="99"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G19" s="102">
+      <c r="G20" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="103" t="e">
+      <c r="H20" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="127" t="e">
+      <c r="I20" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="116"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101">
+    <row r="21" spans="1:9">
+      <c r="A21" s="100"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G20" s="102">
+      <c r="G21" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="103" t="e">
+      <c r="H21" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="127" t="e">
+      <c r="I21" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:9">
-      <c r="A21" s="122"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110">
+    <row r="22" spans="1:9">
+      <c r="A22" s="99"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="111">
+      <c r="G22" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="112" t="e">
+      <c r="H22" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="128" t="e">
+      <c r="I22" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="116"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94">
+    <row r="23" spans="1:9">
+      <c r="A23" s="99"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G22" s="95">
+      <c r="G23" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H22" s="96" t="e">
+      <c r="H23" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="126" t="e">
+      <c r="I23" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="116"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101">
+    <row r="24" spans="1:9">
+      <c r="A24" s="99"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="102">
+      <c r="G24" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H23" s="103" t="e">
+      <c r="H24" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="127" t="e">
+      <c r="I24" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="116"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101">
+    <row r="25" spans="1:9">
+      <c r="A25" s="99"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G24" s="102">
+      <c r="G25" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H24" s="103" t="e">
+      <c r="H25" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="127" t="e">
+      <c r="I25" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="116"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101">
+    <row r="26" spans="1:9">
+      <c r="A26" s="99"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G25" s="102">
+      <c r="G26" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H25" s="103" t="e">
+      <c r="H26" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="127" t="e">
+      <c r="I26" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="116"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101">
+    <row r="27" spans="1:9">
+      <c r="A27" s="100"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G26" s="102">
+      <c r="G27" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H26" s="103" t="e">
+      <c r="H27" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="127" t="e">
+      <c r="I27" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:9">
-      <c r="A27" s="122"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="110">
+    <row r="28" spans="1:9">
+      <c r="A28" s="99"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G27" s="111">
+      <c r="G28" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H27" s="112" t="e">
+      <c r="H28" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="128" t="e">
+      <c r="I28" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="116"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94">
+    <row r="29" spans="1:9">
+      <c r="A29" s="99"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G28" s="95">
+      <c r="G29" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H28" s="96" t="e">
+      <c r="H29" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="126" t="e">
+      <c r="I29" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="116"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101">
+    <row r="30" spans="1:9">
+      <c r="A30" s="99"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G29" s="102">
+      <c r="G30" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H29" s="103" t="e">
+      <c r="H30" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="127" t="e">
+      <c r="I30" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="116"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101">
+    <row r="31" spans="1:9">
+      <c r="A31" s="99"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G30" s="102">
+      <c r="G31" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H30" s="103" t="e">
+      <c r="H31" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="127" t="e">
+      <c r="I31" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="116"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="101">
+    <row r="32" spans="1:9">
+      <c r="A32" s="99"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G31" s="102">
+      <c r="G32" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H31" s="103" t="e">
+      <c r="H32" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="127" t="e">
+      <c r="I32" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="116"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="101">
+    <row r="33" spans="1:9">
+      <c r="A33" s="100"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G32" s="102">
+      <c r="G33" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H32" s="103" t="e">
+      <c r="H33" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="127" t="e">
+      <c r="I33" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:9">
-      <c r="A33" s="122"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110">
+    <row r="34" spans="1:9">
+      <c r="A34" s="99"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G33" s="111">
+      <c r="G34" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H33" s="112" t="e">
+      <c r="H34" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="128" t="e">
+      <c r="I34" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="116"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="94">
+    <row r="35" spans="1:9">
+      <c r="A35" s="99"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G34" s="95">
+      <c r="G35" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H34" s="96" t="e">
+      <c r="H35" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="126" t="e">
+      <c r="I35" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="116"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="101">
+    <row r="36" spans="1:9">
+      <c r="A36" s="99"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G35" s="102">
+      <c r="G36" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H35" s="103" t="e">
+      <c r="H36" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="127" t="e">
+      <c r="I36" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="116"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="101">
+    <row r="37" spans="1:9">
+      <c r="A37" s="99"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G36" s="102">
+      <c r="G37" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H36" s="103" t="e">
+      <c r="H37" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="127" t="e">
+      <c r="I37" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="116"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="101">
+    <row r="38" spans="1:9">
+      <c r="A38" s="99"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G37" s="102">
+      <c r="G38" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="103" t="e">
+      <c r="H38" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="127" t="e">
+      <c r="I38" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="116"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="101">
+    <row r="39" spans="1:9">
+      <c r="A39" s="100"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G38" s="102">
+      <c r="G39" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H38" s="103" t="e">
+      <c r="H39" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="127" t="e">
+      <c r="I39" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:9">
-      <c r="A39" s="122"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="110">
+    <row r="40" spans="1:9">
+      <c r="A40" s="99"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G39" s="111">
+      <c r="G40" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H39" s="112" t="e">
+      <c r="H40" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="128" t="e">
+      <c r="I40" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="116"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="94">
+    <row r="41" spans="1:9">
+      <c r="A41" s="99"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G40" s="95">
+      <c r="G41" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H40" s="96" t="e">
+      <c r="H41" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="126" t="e">
+      <c r="I41" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="116"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="101">
+    <row r="42" spans="1:9">
+      <c r="A42" s="99"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G41" s="102">
+      <c r="G42" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H41" s="103" t="e">
+      <c r="H42" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="127" t="e">
+      <c r="I42" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="116"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="101">
+    <row r="43" spans="1:9">
+      <c r="A43" s="99"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G42" s="102">
+      <c r="G43" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H42" s="103" t="e">
+      <c r="H43" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="127" t="e">
+      <c r="I43" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="116"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="101">
+    <row r="44" spans="1:9">
+      <c r="A44" s="99"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G43" s="102">
+      <c r="G44" s="74">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H43" s="103" t="e">
+      <c r="H44" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="127" t="e">
+      <c r="I44" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="116"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="101">
+    <row r="45" spans="1:9">
+      <c r="A45" s="100"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G44" s="102">
+      <c r="G45" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H44" s="103" t="e">
+      <c r="H45" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="127" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="1:9">
-      <c r="A45" s="122"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="111">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="112" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="128" t="e">
+      <c r="I45" s="93" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3879,30 +3415,29 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -3921,58 +3456,58 @@
     <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="45" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:15" s="40" customFormat="1" ht="27">
+      <c r="A1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+    <row r="2" spans="1:15" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>51</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="45">
         <v>43073</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -4015,11 +3550,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+    <row r="3" spans="1:15" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>52</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="45">
         <v>43095</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -4062,11 +3597,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+    <row r="4" spans="1:15" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>52</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="45">
         <v>43077</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -4109,11 +3644,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    <row r="5" spans="1:15" s="1" customFormat="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="45">
         <v>43105</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -4156,11 +3691,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:15">
+    <row r="6" spans="1:15" s="1" customFormat="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="45">
         <v>43105</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4203,11 +3738,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:15">
+    <row r="7" spans="1:15" s="1" customFormat="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -4222,11 +3757,11 @@
       <c r="N7" s="9"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:15">
+    <row r="8" spans="1:15" s="1" customFormat="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -4241,11 +3776,11 @@
       <c r="N8" s="9"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:15">
+    <row r="9" spans="1:15" s="1" customFormat="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="9"/>
@@ -4286,11 +3821,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:15">
+    <row r="10" spans="1:15" s="1" customFormat="1">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="9"/>
@@ -4331,11 +3866,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:15">
+    <row r="11" spans="1:15" s="1" customFormat="1">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="9"/>
@@ -4376,11 +3911,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="9"/>
@@ -4421,11 +3956,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:15">
+    <row r="13" spans="1:15" s="1" customFormat="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="45" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="2"/>
@@ -4466,7 +4001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:15">
+    <row r="14" spans="1:15" s="1" customFormat="1">
       <c r="A14" s="2"/>
       <c r="B14" s="12"/>
       <c r="C14" s="2"/>
@@ -4483,9 +4018,9 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:15">
+    <row r="15" spans="1:15" s="1" customFormat="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -4500,11 +4035,11 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:15">
+    <row r="16" spans="1:15" s="1" customFormat="1">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="46">
         <v>43187</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -4547,11 +4082,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:15">
+    <row r="17" spans="1:15" s="1" customFormat="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="46">
         <v>43187</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -4594,11 +4129,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:15">
+    <row r="18" spans="1:15" s="1" customFormat="1">
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="46">
         <v>43187</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4641,11 +4176,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:15">
+    <row r="19" spans="1:15" s="1" customFormat="1">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="46">
         <v>43187</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -4688,11 +4223,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:15">
+    <row r="20" spans="1:15" s="1" customFormat="1">
       <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="46">
         <v>43187</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -4735,11 +4270,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:15">
+    <row r="21" spans="1:15" s="1" customFormat="1">
       <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="46">
         <v>43190</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -4782,11 +4317,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:15">
+    <row r="22" spans="1:15" s="1" customFormat="1">
       <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="46">
         <v>43190</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -4829,11 +4364,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:15">
+    <row r="23" spans="1:15" s="1" customFormat="1">
       <c r="A23" s="2">
         <v>13</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="46">
         <v>43190</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -4878,7 +4413,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3"/>
-      <c r="B24" s="52"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4893,11 +4428,11 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:15">
+    <row r="25" spans="1:15" s="1" customFormat="1">
       <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="46">
         <v>43208</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -4915,7 +4450,7 @@
       <c r="G25" s="2">
         <v>76153979</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="48" t="s">
         <v>101</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -4940,11 +4475,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:15">
+    <row r="26" spans="1:15" s="1" customFormat="1">
       <c r="A26" s="2">
         <v>16</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="46">
         <v>43208</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4962,7 +4497,7 @@
       <c r="G26" s="2">
         <v>76156173</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="48" t="s">
         <v>103</v>
       </c>
       <c r="I26" s="9" t="s">
@@ -4987,11 +4522,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:15">
+    <row r="27" spans="1:15" s="1" customFormat="1">
       <c r="A27" s="2">
         <v>16</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="46">
         <v>43208</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -5034,11 +4569,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:15">
+    <row r="28" spans="1:15" s="1" customFormat="1">
       <c r="A28" s="2">
         <v>16</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="46">
         <v>43208</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -5056,7 +4591,7 @@
       <c r="G28" s="2">
         <v>76152838</v>
       </c>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="48" t="s">
         <v>108</v>
       </c>
       <c r="I28" s="9" t="s">
@@ -5081,11 +4616,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:15">
+    <row r="29" spans="1:15" s="1" customFormat="1">
       <c r="A29" s="2">
         <v>16</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="46">
         <v>43208</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -5103,7 +4638,7 @@
       <c r="G29" s="2">
         <v>76152851</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="48" t="s">
         <v>110</v>
       </c>
       <c r="I29" s="9" t="s">
@@ -5121,18 +4656,18 @@
       <c r="M29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="54">
+      <c r="N29" s="49">
         <v>18851058032</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:15">
+    <row r="30" spans="1:15" s="1" customFormat="1">
       <c r="A30" s="2">
         <v>16</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="46">
         <v>43208</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -5150,7 +4685,7 @@
       <c r="G30" s="2">
         <v>76138868</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="48" t="s">
         <v>113</v>
       </c>
       <c r="I30" s="9" t="s">
@@ -5175,11 +4710,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:15">
+    <row r="31" spans="1:15" s="1" customFormat="1">
       <c r="A31" s="2">
         <v>16</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="46">
         <v>43208</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -5197,7 +4732,7 @@
       <c r="G31" s="9">
         <v>76128369</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="48" t="s">
         <v>115</v>
       </c>
       <c r="I31" s="9" t="s">
@@ -5222,11 +4757,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:15">
+    <row r="32" spans="1:15" s="1" customFormat="1">
       <c r="A32" s="2">
         <v>16</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="46">
         <v>43208</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -5244,7 +4779,7 @@
       <c r="G32" s="9">
         <v>76128810</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="48" t="s">
         <v>116</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -5269,11 +4804,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:15">
+    <row r="33" spans="1:15" s="1" customFormat="1">
       <c r="A33" s="2">
         <v>16</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="46">
         <v>43208</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -5291,7 +4826,7 @@
       <c r="G33" s="9">
         <v>76126516</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="48" t="s">
         <v>117</v>
       </c>
       <c r="I33" s="9" t="s">
@@ -5316,11 +4851,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:15">
+    <row r="34" spans="1:15" s="1" customFormat="1">
       <c r="A34" s="2">
         <v>16</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="46">
         <v>43208</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -5338,7 +4873,7 @@
       <c r="G34" s="9">
         <v>76123630</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="48" t="s">
         <v>118</v>
       </c>
       <c r="I34" s="9" t="s">
@@ -5363,11 +4898,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:15">
+    <row r="35" spans="1:15" s="1" customFormat="1">
       <c r="A35" s="2">
         <v>16</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="46">
         <v>43208</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -5385,7 +4920,7 @@
       <c r="G35" s="9">
         <v>76153981</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="48" t="s">
         <v>119</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -5410,11 +4945,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:15">
+    <row r="36" spans="1:15" s="1" customFormat="1">
       <c r="A36" s="2">
         <v>16</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="46">
         <v>43208</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -5432,7 +4967,7 @@
       <c r="G36" s="9">
         <v>76158096</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="48" t="s">
         <v>120</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -5457,11 +4992,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:15">
+    <row r="37" spans="1:15" s="1" customFormat="1">
       <c r="A37" s="2">
         <v>16</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B37" s="46">
         <v>43208</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -5479,7 +5014,7 @@
       <c r="G37" s="2">
         <v>76159921</v>
       </c>
-      <c r="H37" s="53" t="s">
+      <c r="H37" s="48" t="s">
         <v>121</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -5504,11 +5039,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:15">
+    <row r="38" spans="1:15" s="1" customFormat="1">
       <c r="A38" s="2">
         <v>16</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="46">
         <v>43208</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -5526,7 +5061,7 @@
       <c r="G38" s="2">
         <v>76160131</v>
       </c>
-      <c r="H38" s="53" t="s">
+      <c r="H38" s="48" t="s">
         <v>122</v>
       </c>
       <c r="I38" s="9" t="s">
@@ -5551,11 +5086,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:15">
+    <row r="39" spans="1:15" s="1" customFormat="1">
       <c r="A39" s="2">
         <v>16</v>
       </c>
-      <c r="B39" s="51">
+      <c r="B39" s="46">
         <v>43208</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -5591,16 +5126,16 @@
       <c r="M39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N39" s="54">
+      <c r="N39" s="49">
         <v>13675152232</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:15">
+    <row r="40" spans="1:15" s="1" customFormat="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="51"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -5615,11 +5150,11 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:15">
+    <row r="41" spans="1:15" s="1" customFormat="1">
       <c r="A41" s="2">
         <v>17</v>
       </c>
-      <c r="B41" s="51">
+      <c r="B41" s="46">
         <v>43215</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -5662,11 +5197,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:15">
+    <row r="42" spans="1:15" s="1" customFormat="1">
       <c r="A42" s="2">
         <v>18</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -5681,11 +5216,11 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:15">
+    <row r="43" spans="1:15" s="1" customFormat="1">
       <c r="A43" s="2">
         <v>19</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -5700,11 +5235,11 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:15">
-      <c r="A44" s="19">
+    <row r="44" spans="1:15" s="1" customFormat="1">
+      <c r="A44" s="127">
         <v>20</v>
       </c>
-      <c r="B44" s="51">
+      <c r="B44" s="46">
         <v>43235</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -5722,7 +5257,7 @@
       <c r="G44" s="2">
         <v>76162827</v>
       </c>
-      <c r="H44" s="54" t="s">
+      <c r="H44" s="49" t="s">
         <v>135</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -5748,8 +5283,8 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="55"/>
-      <c r="B45" s="51">
+      <c r="A45" s="128"/>
+      <c r="B45" s="46">
         <v>43235</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -5793,8 +5328,8 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="55"/>
-      <c r="B46" s="51">
+      <c r="A46" s="128"/>
+      <c r="B46" s="46">
         <v>43235</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -5838,8 +5373,8 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="51">
+      <c r="A47" s="128"/>
+      <c r="B47" s="46">
         <v>43235</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -5882,54 +5417,54 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" s="46" customFormat="1" spans="1:15">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56">
+    <row r="48" spans="1:15" s="41" customFormat="1">
+      <c r="A48" s="128"/>
+      <c r="B48" s="50">
         <v>43235</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="57">
+      <c r="G48" s="51">
         <v>76121892</v>
       </c>
-      <c r="H48" s="57" t="s">
+      <c r="H48" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="57" t="s">
+      <c r="I48" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J48" s="57" t="s">
+      <c r="J48" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="K48" s="57">
+      <c r="K48" s="51">
         <v>18061296271</v>
       </c>
-      <c r="L48" s="57" t="s">
+      <c r="L48" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="M48" s="57" t="s">
+      <c r="M48" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="N48" s="62">
+      <c r="N48" s="56">
         <v>13182829987</v>
       </c>
-      <c r="O48" s="57" t="s">
+      <c r="O48" s="51" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="51">
+      <c r="A49" s="128"/>
+      <c r="B49" s="46">
         <v>43235</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -5973,8 +5508,8 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="23"/>
-      <c r="B50" s="51">
+      <c r="A50" s="129"/>
+      <c r="B50" s="46">
         <v>43235</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -6018,10 +5553,10 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="19">
+      <c r="A51" s="127">
         <v>21</v>
       </c>
-      <c r="B51" s="51">
+      <c r="B51" s="46">
         <v>43243</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -6065,8 +5600,8 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="55"/>
-      <c r="B52" s="51">
+      <c r="A52" s="128"/>
+      <c r="B52" s="46">
         <v>43243</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -6110,8 +5645,8 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="51">
+      <c r="A53" s="128"/>
+      <c r="B53" s="46">
         <v>43243</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -6155,8 +5690,8 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="55"/>
-      <c r="B54" s="51">
+      <c r="A54" s="128"/>
+      <c r="B54" s="46">
         <v>43243</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -6200,8 +5735,8 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="51">
+      <c r="A55" s="128"/>
+      <c r="B55" s="46">
         <v>43243</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -6245,8 +5780,8 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="55"/>
-      <c r="B56" s="51">
+      <c r="A56" s="128"/>
+      <c r="B56" s="46">
         <v>43243</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -6290,8 +5825,8 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="55"/>
-      <c r="B57" s="51">
+      <c r="A57" s="128"/>
+      <c r="B57" s="46">
         <v>43243</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -6335,8 +5870,8 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="23"/>
-      <c r="B58" s="51">
+      <c r="A58" s="129"/>
+      <c r="B58" s="46">
         <v>43243</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -6383,28 +5918,28 @@
       <c r="A59" s="2">
         <v>22</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="63"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="57"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:15">
+    <row r="60" spans="1:15" s="1" customFormat="1">
       <c r="A60" s="2">
         <v>23</v>
       </c>
-      <c r="B60" s="51">
+      <c r="B60" s="46">
         <v>43257</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -6447,12 +5982,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:15">
-      <c r="A61" s="19">
+    <row r="61" spans="1:15" s="1" customFormat="1">
+      <c r="A61" s="127">
         <v>25</v>
       </c>
-      <c r="B61" s="51">
-        <v>43271</v>
+      <c r="B61" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>80</v>
@@ -6464,13 +5999,13 @@
         <v>94</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="G61" s="2">
         <v>76173857</v>
       </c>
-      <c r="H61" s="25" t="s">
-        <v>172</v>
+      <c r="H61" s="94" t="s">
+        <v>199</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>42</v>
@@ -6494,10 +6029,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:15">
-      <c r="A62" s="55"/>
-      <c r="B62" s="51">
-        <v>43271</v>
+    <row r="62" spans="1:15" s="1" customFormat="1">
+      <c r="A62" s="128"/>
+      <c r="B62" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>80</v>
@@ -6509,13 +6044,13 @@
         <v>94</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G62" s="2">
         <v>76178939</v>
       </c>
-      <c r="H62" s="25" t="s">
-        <v>174</v>
+      <c r="H62" s="94" t="s">
+        <v>200</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>42</v>
@@ -6539,28 +6074,28 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:15">
-      <c r="A63" s="55"/>
-      <c r="B63" s="51">
-        <v>43271</v>
+    <row r="63" spans="1:15" s="1" customFormat="1">
+      <c r="A63" s="128"/>
+      <c r="B63" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>175</v>
+      <c r="D63" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" s="94" t="s">
+        <v>202</v>
       </c>
       <c r="G63" s="2">
         <v>76175787</v>
       </c>
-      <c r="H63" s="25" t="s">
-        <v>176</v>
+      <c r="H63" s="94" t="s">
+        <v>201</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>42</v>
@@ -6571,8 +6106,8 @@
       <c r="K63" s="9">
         <v>18061296271</v>
       </c>
-      <c r="L63" s="25" t="s">
-        <v>70</v>
+      <c r="L63" s="94" t="s">
+        <v>205</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>50</v>
@@ -6584,28 +6119,28 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:15">
-      <c r="A64" s="23"/>
-      <c r="B64" s="51">
-        <v>43271</v>
+    <row r="64" spans="1:15" s="1" customFormat="1">
+      <c r="A64" s="129"/>
+      <c r="B64" s="96" t="s">
+        <v>196</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>153</v>
+      <c r="D64" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64" s="94" t="s">
+        <v>208</v>
       </c>
       <c r="G64" s="2">
         <v>76179639</v>
       </c>
-      <c r="H64" s="25" t="s">
-        <v>178</v>
+      <c r="H64" s="94" t="s">
+        <v>207</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>42</v>
@@ -6616,8 +6151,8 @@
       <c r="K64" s="9">
         <v>18061296271</v>
       </c>
-      <c r="L64" s="25" t="s">
-        <v>179</v>
+      <c r="L64" s="94" t="s">
+        <v>205</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>50</v>
@@ -6629,94 +6164,152 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="14"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="1:15">
+    <row r="65" spans="1:16">
+      <c r="A65" s="127">
+        <v>25</v>
+      </c>
+      <c r="B65" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" s="2">
+        <v>76173536</v>
+      </c>
+      <c r="H65" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="I65" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="9">
+        <v>18061296271</v>
+      </c>
+      <c r="L65" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N65" s="9">
+        <v>13817924655</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="128"/>
+      <c r="B66" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="94" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="G66" s="2">
+        <v>76180886</v>
+      </c>
+      <c r="H66" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="I66" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" s="9">
+        <v>18061296271</v>
+      </c>
+      <c r="L66" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N66" s="9">
+        <v>18405117179</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="14"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="59"/>
+      <c r="M67" s="53"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="14"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="65"/>
+      <c r="P68" s="58"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="14"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="65"/>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69" s="58"/>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6733,7 +6326,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:16">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6750,7 +6343,7 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:16">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6767,7 +6360,7 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:16">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6784,7 +6377,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:16">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6801,7 +6394,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:16">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6818,7 +6411,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:16">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6835,7 +6428,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:16">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6852,7 +6445,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:16">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6869,7 +6462,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:16">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6886,7 +6479,7 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:16">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -10695,11 +10288,13 @@
       <c r="O303" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A58"/>
     <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A66"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -10709,25 +10304,23 @@
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="34.875" style="15" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -10735,7 +10328,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -10743,662 +10336,690 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="19">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="A2" s="127">
         <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
+      <c r="A3" s="129"/>
+      <c r="B3" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="19">
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
+      <c r="A4" s="127">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1">
       <c r="A6" s="2">
         <v>25</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>199</v>
+      <c r="B6" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>212</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1">
+      <c r="A7" s="127">
+        <v>26</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1">
+      <c r="A8" s="129"/>
+      <c r="B8" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:8">
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:8">
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:8">
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:8">
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1">
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:8">
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="14.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:8">
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:8">
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:8">
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:8">
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="30"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:8">
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:8">
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:8">
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:8">
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:8">
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:8">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:8">
-      <c r="A28" s="31"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:8">
-      <c r="A29" s="31"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:8">
-      <c r="A30" s="31"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:8">
-      <c r="A31" s="31"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:8">
-      <c r="A32" s="31"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="32"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:8">
-      <c r="A34" s="31"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:8">
-      <c r="A35" s="31"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:8">
-      <c r="A36" s="31"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="32"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="31"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="32"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="31"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="32"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="31"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="32"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="31"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="32"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="31"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="31"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="31"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="31"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="31"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="31"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="31"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="31"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:8">
-      <c r="A49" s="31"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="32"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:8">
-      <c r="A50" s="31"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="32"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="31"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="31"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="31"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="31"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="31"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="31"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="31"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="31"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E5:E1048576">
@@ -11408,22 +11029,20 @@
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
@@ -11433,24 +11052,24 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -11461,12 +11080,12 @@
         <v>43196</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -11477,13 +11096,13 @@
         <v>43247</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="127">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -11493,38 +11112,44 @@
         <v>43260</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="129"/>
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43274</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>229</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
       <c r="B6" s="2"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="9"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:6">
       <c r="B7" s="2"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12"/>
@@ -11540,8 +11165,11 @@
       <c r="F10" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/周数据/《实施上线数据统计表》-杨磊.xlsx
+++ b/周数据/《实施上线数据统计表》-杨磊.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="234">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -844,6 +844,21 @@
   </si>
   <si>
     <t>京茶山朝天宫店实施及培训</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月28</t>
+  </si>
+  <si>
+    <t>南京御品殿餐饮管理有限公司</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（朝天宫堂子街店）</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1627,7 +1642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1948,106 +1963,109 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2057,8 +2075,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2351,33 +2369,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="110" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="115" t="s">
@@ -2386,10 +2404,10 @@
       <c r="C3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="110"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="119" t="s">
         <v>6</v>
       </c>
@@ -2404,7 +2422,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="112"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="116"/>
       <c r="C4" s="118"/>
       <c r="D4" s="59" t="s">
@@ -2544,7 +2562,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="112" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="85" t="s">
@@ -2565,7 +2583,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="99"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="85" t="s">
         <v>19</v>
       </c>
@@ -2586,7 +2604,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="99"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="85" t="s">
         <v>20</v>
       </c>
@@ -2609,7 +2627,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="99"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="85" t="s">
         <v>21</v>
       </c>
@@ -2638,7 +2656,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="99"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="88" t="s">
         <v>22</v>
       </c>
@@ -2691,7 +2709,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="113" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="85">
@@ -2722,7 +2740,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="99"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="88">
         <v>24</v>
       </c>
@@ -2751,7 +2769,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="99"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="88">
         <v>25</v>
       </c>
@@ -2781,7 +2799,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="99"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="88">
         <v>26</v>
       </c>
@@ -2789,17 +2807,17 @@
         <v>0</v>
       </c>
       <c r="D19" s="71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="72">
         <v>0</v>
       </c>
       <c r="F19" s="73">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="75">
         <f t="shared" si="4"/>
@@ -2811,7 +2829,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="99"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="88"/>
       <c r="C20" s="87"/>
       <c r="D20" s="71"/>
@@ -2834,7 +2852,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="100"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="89"/>
       <c r="C21" s="90"/>
       <c r="D21" s="80"/>
@@ -2857,7 +2875,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="99"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="85"/>
       <c r="C22" s="86"/>
       <c r="D22" s="64"/>
@@ -2880,7 +2898,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="99"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="88"/>
       <c r="C23" s="87"/>
       <c r="D23" s="71"/>
@@ -2903,7 +2921,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="99"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="88"/>
       <c r="C24" s="87"/>
       <c r="D24" s="71"/>
@@ -2926,7 +2944,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="99"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="88"/>
       <c r="C25" s="87"/>
       <c r="D25" s="71"/>
@@ -2949,7 +2967,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="99"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="88"/>
       <c r="C26" s="87"/>
       <c r="D26" s="71"/>
@@ -2972,7 +2990,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="100"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="89"/>
       <c r="C27" s="90"/>
       <c r="D27" s="80"/>
@@ -2995,7 +3013,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="99"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="85"/>
       <c r="C28" s="86"/>
       <c r="D28" s="64"/>
@@ -3018,7 +3036,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="99"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="88"/>
       <c r="C29" s="87"/>
       <c r="D29" s="71"/>
@@ -3041,7 +3059,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="99"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="88"/>
       <c r="C30" s="87"/>
       <c r="D30" s="71"/>
@@ -3064,7 +3082,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="99"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="88"/>
       <c r="C31" s="87"/>
       <c r="D31" s="71"/>
@@ -3087,7 +3105,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="99"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="88"/>
       <c r="C32" s="87"/>
       <c r="D32" s="71"/>
@@ -3110,7 +3128,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="100"/>
+      <c r="A33" s="127"/>
       <c r="B33" s="89"/>
       <c r="C33" s="90"/>
       <c r="D33" s="80"/>
@@ -3133,7 +3151,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="99"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="85"/>
       <c r="C34" s="86"/>
       <c r="D34" s="64"/>
@@ -3156,7 +3174,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="99"/>
+      <c r="A35" s="113"/>
       <c r="B35" s="88"/>
       <c r="C35" s="87"/>
       <c r="D35" s="71"/>
@@ -3179,7 +3197,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="99"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="88"/>
       <c r="C36" s="87"/>
       <c r="D36" s="71"/>
@@ -3202,7 +3220,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="99"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="88"/>
       <c r="C37" s="87"/>
       <c r="D37" s="71"/>
@@ -3225,7 +3243,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="99"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="88"/>
       <c r="C38" s="87"/>
       <c r="D38" s="71"/>
@@ -3248,7 +3266,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="100"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="89"/>
       <c r="C39" s="90"/>
       <c r="D39" s="80"/>
@@ -3271,7 +3289,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="99"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="85"/>
       <c r="C40" s="86"/>
       <c r="D40" s="64"/>
@@ -3294,7 +3312,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="99"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="85"/>
       <c r="C41" s="87"/>
       <c r="D41" s="71"/>
@@ -3317,7 +3335,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="99"/>
+      <c r="A42" s="113"/>
       <c r="B42" s="85"/>
       <c r="C42" s="87"/>
       <c r="D42" s="71"/>
@@ -3340,7 +3358,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="99"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="85"/>
       <c r="C43" s="87"/>
       <c r="D43" s="71"/>
@@ -3363,7 +3381,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="99"/>
+      <c r="A44" s="113"/>
       <c r="B44" s="85"/>
       <c r="C44" s="87"/>
       <c r="D44" s="71"/>
@@ -3386,7 +3404,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="100"/>
+      <c r="A45" s="127"/>
       <c r="B45" s="89"/>
       <c r="C45" s="90"/>
       <c r="D45" s="80"/>
@@ -3410,6 +3428,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
@@ -3421,11 +3444,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3436,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -5236,7 +5254,7 @@
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1">
-      <c r="A44" s="127">
+      <c r="A44" s="128">
         <v>20</v>
       </c>
       <c r="B44" s="46">
@@ -5283,7 +5301,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="128"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="46">
         <v>43235</v>
       </c>
@@ -5328,7 +5346,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="128"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="46">
         <v>43235</v>
       </c>
@@ -5373,7 +5391,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="128"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="46">
         <v>43235</v>
       </c>
@@ -5418,7 +5436,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" s="41" customFormat="1">
-      <c r="A48" s="128"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="50">
         <v>43235</v>
       </c>
@@ -5463,7 +5481,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="128"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="46">
         <v>43235</v>
       </c>
@@ -5508,7 +5526,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="129"/>
+      <c r="A50" s="130"/>
       <c r="B50" s="46">
         <v>43235</v>
       </c>
@@ -5553,7 +5571,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="127">
+      <c r="A51" s="128">
         <v>21</v>
       </c>
       <c r="B51" s="46">
@@ -5600,7 +5618,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="128"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="46">
         <v>43243</v>
       </c>
@@ -5645,7 +5663,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="128"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="46">
         <v>43243</v>
       </c>
@@ -5690,7 +5708,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="128"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="46">
         <v>43243</v>
       </c>
@@ -5735,7 +5753,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="128"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="46">
         <v>43243</v>
       </c>
@@ -5780,7 +5798,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="128"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="46">
         <v>43243</v>
       </c>
@@ -5825,7 +5843,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="128"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="46">
         <v>43243</v>
       </c>
@@ -5870,7 +5888,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="129"/>
+      <c r="A58" s="130"/>
       <c r="B58" s="46">
         <v>43243</v>
       </c>
@@ -5983,7 +6001,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1">
-      <c r="A61" s="127">
+      <c r="A61" s="128">
         <v>25</v>
       </c>
       <c r="B61" s="46" t="s">
@@ -6030,7 +6048,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1">
-      <c r="A62" s="128"/>
+      <c r="A62" s="129"/>
       <c r="B62" s="46" t="s">
         <v>196</v>
       </c>
@@ -6075,7 +6093,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1">
-      <c r="A63" s="128"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="46" t="s">
         <v>196</v>
       </c>
@@ -6120,7 +6138,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1">
-      <c r="A64" s="129"/>
+      <c r="A64" s="130"/>
       <c r="B64" s="96" t="s">
         <v>196</v>
       </c>
@@ -6165,7 +6183,7 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="127">
+      <c r="A65" s="128">
         <v>25</v>
       </c>
       <c r="B65" s="96" t="s">
@@ -6212,7 +6230,7 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="128"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="96" t="s">
         <v>214</v>
       </c>
@@ -6258,20 +6276,48 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="14"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
+      <c r="B67" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="131" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="131" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="G67" s="3">
+        <v>76181361</v>
+      </c>
+      <c r="H67" s="131" t="s">
+        <v>233</v>
+      </c>
+      <c r="I67" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" s="9">
+        <v>18061296271</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N67" s="9">
+        <v>15189977010</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="14"/>
@@ -10352,7 +10398,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="127">
+      <c r="A2" s="128">
         <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -10376,7 +10422,7 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
-      <c r="A3" s="129"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="22" t="s">
         <v>182</v>
       </c>
@@ -10398,7 +10444,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
-      <c r="A4" s="127">
+      <c r="A4" s="128">
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -10422,7 +10468,7 @@
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
-      <c r="A5" s="129"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="22" t="s">
         <v>182</v>
       </c>
@@ -10468,7 +10514,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1">
-      <c r="A7" s="127">
+      <c r="A7" s="128">
         <v>26</v>
       </c>
       <c r="B7" s="94" t="s">
@@ -10492,7 +10538,7 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1">
-      <c r="A8" s="129"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="23" t="s">
         <v>228</v>
       </c>
@@ -11102,7 +11148,7 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="127">
+      <c r="A4" s="128">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -11117,14 +11163,14 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="129"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="12">
         <v>43274</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="99" t="s">
         <v>229</v>
       </c>
       <c r="E5" s="9"/>

--- a/周数据/《实施上线数据统计表》-杨磊.xlsx
+++ b/周数据/《实施上线数据统计表》-杨磊.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="243">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>05月</t>
-  </si>
-  <si>
-    <t>第18周</t>
   </si>
   <si>
     <t>第19周</t>
@@ -650,23 +647,6 @@
   </si>
   <si>
     <t>楼兰中央商场店驻店</t>
-  </si>
-  <si>
-    <r>
-      <t>6月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>常州</t>
@@ -772,10 +752,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>6月27</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>常州</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -847,9 +823,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>6月28</t>
-  </si>
-  <si>
     <t>南京御品殿餐饮管理有限公司</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -859,6 +832,57 @@
   </si>
   <si>
     <t>京茶山手作茶物（朝天宫堂子街店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>07月</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青森（常州武进万达广场店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海销售</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>巴四炭烤牛蛙（南京吾悦广场店）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>王总</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第18周</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>23周</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>24周</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>25周</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>26周</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>27周</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1642,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1708,9 +1732,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1966,6 +1987,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2014,10 +2047,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2062,10 +2091,6 @@
     <xf numFmtId="9" fontId="14" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2074,9 +2099,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2352,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2369,1070 +2391,1074 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="108"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="119" t="s">
+      <c r="E3" s="111"/>
+      <c r="F3" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="126" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="111"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="59" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="126"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="127"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63">
+      <c r="B5" s="61"/>
+      <c r="C5" s="62">
         <v>4</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="63">
         <v>5</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66">
+      <c r="E5" s="64"/>
+      <c r="F5" s="65">
         <v>5</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68">
+      <c r="G5" s="66"/>
+      <c r="H5" s="67">
         <f t="shared" ref="H5:H15" si="0">E5/F5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="90">
         <f t="shared" ref="I5:I15" si="1">F5/C5</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70">
+      <c r="B6" s="68"/>
+      <c r="C6" s="69">
         <v>3</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="70">
         <v>6</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73">
+      <c r="E6" s="71"/>
+      <c r="F6" s="72">
         <v>6</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75">
+      <c r="G6" s="73"/>
+      <c r="H6" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="91">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70">
+      <c r="B7" s="68"/>
+      <c r="C7" s="69">
         <v>1</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="70">
         <v>4</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73">
+      <c r="E7" s="71"/>
+      <c r="F7" s="72">
         <v>4</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75">
+      <c r="G7" s="73"/>
+      <c r="H7" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70">
+      <c r="B8" s="68"/>
+      <c r="C8" s="69">
         <v>5</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="70">
         <v>9</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73">
+      <c r="E8" s="71"/>
+      <c r="F8" s="72">
         <v>9</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75">
+      <c r="G8" s="73"/>
+      <c r="H8" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="92">
+      <c r="I8" s="91">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79">
+      <c r="B9" s="77"/>
+      <c r="C9" s="78">
         <v>8</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="79">
         <v>16</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82">
+      <c r="E9" s="80"/>
+      <c r="F9" s="81">
         <v>16</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84">
+      <c r="G9" s="82"/>
+      <c r="H9" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="92">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68" t="e">
+      <c r="B10" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="91" t="e">
+      <c r="I10" s="90" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="113"/>
-      <c r="B11" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="87">
+      <c r="A11" s="99"/>
+      <c r="B11" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="86">
         <v>3</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75" t="e">
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="113"/>
-      <c r="B12" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="71">
+      <c r="A12" s="99"/>
+      <c r="B12" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="70">
         <v>5</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73">
+      <c r="E12" s="71"/>
+      <c r="F12" s="72">
         <v>5</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75">
+      <c r="G12" s="73"/>
+      <c r="H12" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="92" t="e">
+      <c r="I12" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="113"/>
-      <c r="B13" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="87">
+      <c r="A13" s="99"/>
+      <c r="B13" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="86">
         <v>2</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="70">
         <v>3</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="71">
         <v>4</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="72">
         <v>7</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="73">
         <v>0</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="74">
         <f t="shared" si="0"/>
         <v>0.57142857142857095</v>
       </c>
-      <c r="I13" s="92">
+      <c r="I13" s="91">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="113"/>
-      <c r="B14" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="87">
+      <c r="A14" s="99"/>
+      <c r="B14" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="86">
         <v>2</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="70">
         <v>0</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="71">
         <v>0</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="72">
         <f t="shared" ref="F14:F15" si="2">D14+E14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="73">
         <v>3</v>
       </c>
-      <c r="H14" s="75" t="e">
+      <c r="H14" s="74" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="114"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82">
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="115"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="83">
+      <c r="G15" s="82">
         <f t="shared" ref="G15" si="3">C15-F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="84" t="e">
+      <c r="H15" s="83" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="93" t="e">
+      <c r="I15" s="92" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="85">
-        <v>23</v>
-      </c>
-      <c r="C16" s="86">
+      <c r="A16" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="85">
         <v>0</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="63">
         <v>1</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="64">
         <v>0</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="65">
         <v>1</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="66">
         <v>2</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="67">
         <f t="shared" ref="H16:H45" si="4">E16/F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="91" t="e">
+      <c r="I16" s="90" t="e">
         <f t="shared" ref="I16:I45" si="5">F16/C16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="113"/>
-      <c r="B17" s="88">
-        <v>24</v>
-      </c>
-      <c r="C17" s="87">
+      <c r="A17" s="101"/>
+      <c r="B17" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="86">
         <v>1</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="70">
         <v>0</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72">
         <f t="shared" ref="F17:F45" si="6">D17+E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="73">
         <f t="shared" ref="G17:G45" si="7">C17-F17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="75" t="e">
+      <c r="H17" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="113"/>
-      <c r="B18" s="88">
-        <v>25</v>
-      </c>
-      <c r="C18" s="87">
+      <c r="A18" s="101"/>
+      <c r="B18" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="86">
         <v>0</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="70">
         <v>1</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="71">
         <v>3</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="72">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="73">
         <v>1</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="74">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="I18" s="92" t="e">
+      <c r="I18" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="113"/>
-      <c r="B19" s="88">
-        <v>26</v>
-      </c>
-      <c r="C19" s="87">
+      <c r="A19" s="101"/>
+      <c r="B19" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="86">
         <v>0</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="70">
         <v>3</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="71">
         <v>0</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="72">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="73">
         <v>1</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="74">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I19" s="92" t="e">
+      <c r="I19" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="113"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73">
+      <c r="A20" s="101" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="86">
+        <v>1</v>
+      </c>
+      <c r="D20" s="70">
+        <v>1</v>
+      </c>
+      <c r="E20" s="71">
+        <v>0</v>
+      </c>
+      <c r="F20" s="72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="73">
+        <v>1</v>
+      </c>
+      <c r="H20" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="91">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A21" s="101"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G21" s="82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="75" t="e">
+      <c r="H21" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="92" t="e">
+      <c r="I21" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="127"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82">
+    <row r="22" spans="1:9">
+      <c r="A22" s="99"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="83">
+      <c r="G22" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="84" t="e">
+      <c r="H22" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="93" t="e">
+      <c r="I22" s="90" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="113"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66">
+    <row r="23" spans="1:9">
+      <c r="A23" s="99"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G23" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H22" s="68" t="e">
+      <c r="H23" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="91" t="e">
+      <c r="I23" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="113"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73">
+    <row r="24" spans="1:9">
+      <c r="A24" s="99"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G24" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H23" s="75" t="e">
+      <c r="H24" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="92" t="e">
+      <c r="I24" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="113"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73">
+    <row r="25" spans="1:9">
+      <c r="A25" s="99"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G24" s="74">
+      <c r="G25" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H24" s="75" t="e">
+      <c r="H25" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="92" t="e">
+      <c r="I25" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="113"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73">
+    <row r="26" spans="1:9">
+      <c r="A26" s="99"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G25" s="74">
+      <c r="G26" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H25" s="75" t="e">
+      <c r="H26" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="92" t="e">
+      <c r="I26" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="113"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73">
+    <row r="27" spans="1:9">
+      <c r="A27" s="100"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G26" s="74">
+      <c r="G27" s="82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H26" s="75" t="e">
+      <c r="H27" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="92" t="e">
+      <c r="I27" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="127"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82">
+    <row r="28" spans="1:9">
+      <c r="A28" s="99"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G27" s="83">
+      <c r="G28" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H27" s="84" t="e">
+      <c r="H28" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="93" t="e">
+      <c r="I28" s="90" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="113"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66">
+    <row r="29" spans="1:9">
+      <c r="A29" s="99"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G29" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H28" s="68" t="e">
+      <c r="H29" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="91" t="e">
+      <c r="I29" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="113"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73">
+    <row r="30" spans="1:9">
+      <c r="A30" s="99"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G29" s="74">
+      <c r="G30" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H29" s="75" t="e">
+      <c r="H30" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="92" t="e">
+      <c r="I30" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="113"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73">
+    <row r="31" spans="1:9">
+      <c r="A31" s="99"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G30" s="74">
+      <c r="G31" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H30" s="75" t="e">
+      <c r="H31" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="92" t="e">
+      <c r="I31" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="113"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73">
+    <row r="32" spans="1:9">
+      <c r="A32" s="99"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G31" s="74">
+      <c r="G32" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H31" s="75" t="e">
+      <c r="H32" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="92" t="e">
+      <c r="I32" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="113"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73">
+    <row r="33" spans="1:9">
+      <c r="A33" s="100"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G32" s="74">
+      <c r="G33" s="82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H32" s="75" t="e">
+      <c r="H33" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="92" t="e">
+      <c r="I33" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="127"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82">
+    <row r="34" spans="1:9">
+      <c r="A34" s="99"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G33" s="83">
+      <c r="G34" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H33" s="84" t="e">
+      <c r="H34" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="93" t="e">
+      <c r="I34" s="90" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="113"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66">
+    <row r="35" spans="1:9">
+      <c r="A35" s="99"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G35" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H34" s="68" t="e">
+      <c r="H35" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="91" t="e">
+      <c r="I35" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="113"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73">
+    <row r="36" spans="1:9">
+      <c r="A36" s="99"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G35" s="74">
+      <c r="G36" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H35" s="75" t="e">
+      <c r="H36" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="92" t="e">
+      <c r="I36" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="113"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="73">
+    <row r="37" spans="1:9">
+      <c r="A37" s="99"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G36" s="74">
+      <c r="G37" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H36" s="75" t="e">
+      <c r="H37" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="92" t="e">
+      <c r="I37" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="113"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73">
+    <row r="38" spans="1:9">
+      <c r="A38" s="99"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G37" s="74">
+      <c r="G38" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="75" t="e">
+      <c r="H38" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="92" t="e">
+      <c r="I38" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="113"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73">
+    <row r="39" spans="1:9">
+      <c r="A39" s="100"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G38" s="74">
+      <c r="G39" s="82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H38" s="75" t="e">
+      <c r="H39" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="92" t="e">
+      <c r="I39" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="127"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="82">
+    <row r="40" spans="1:9">
+      <c r="A40" s="99"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G40" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H39" s="84" t="e">
+      <c r="H40" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="93" t="e">
+      <c r="I40" s="90" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="113"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66">
+    <row r="41" spans="1:9">
+      <c r="A41" s="99"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G41" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H40" s="68" t="e">
+      <c r="H41" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="91" t="e">
+      <c r="I41" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="113"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="73">
+    <row r="42" spans="1:9">
+      <c r="A42" s="99"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G41" s="74">
+      <c r="G42" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H41" s="75" t="e">
+      <c r="H42" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="92" t="e">
+      <c r="I42" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="113"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="73">
+    <row r="43" spans="1:9">
+      <c r="A43" s="99"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G42" s="74">
+      <c r="G43" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H42" s="75" t="e">
+      <c r="H43" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="92" t="e">
+      <c r="I43" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="113"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="73">
+    <row r="44" spans="1:9">
+      <c r="A44" s="99"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G43" s="74">
+      <c r="G44" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H43" s="75" t="e">
+      <c r="H44" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="92" t="e">
+      <c r="I44" s="91" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="113"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="73">
+    <row r="45" spans="1:9">
+      <c r="A45" s="100"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G44" s="74">
+      <c r="G45" s="82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H44" s="75" t="e">
+      <c r="H45" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="92" t="e">
+      <c r="I45" s="92" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="127"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="83">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="84" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="93" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D3:E3"/>
@@ -3444,6 +3470,12 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,7 +3487,7 @@
   <dimension ref="A1:P303"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -3474,293 +3506,293 @@
     <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="40" customFormat="1" ht="27">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:15" s="39" customFormat="1" ht="27">
+      <c r="A1" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="J1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="N1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="41" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>51</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>43073</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>76109183</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K2" s="9">
         <v>18061296271</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="N2" s="9">
         <v>13812966236</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>52</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>43095</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>76115178</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K3" s="9">
         <v>18061296271</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="N3" s="9">
         <v>18326308555</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>52</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>43077</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>76113166</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K4" s="9">
         <v>18061296271</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="9">
         <v>13913841691</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>43105</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>76119036</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K5" s="9">
         <v>18061296271</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="9">
         <v>13655118116</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>43105</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="G6" s="2">
         <v>76120311</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K6" s="9">
         <v>18061296271</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="9">
         <v>15150815370</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -3779,7 +3811,7 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -3798,225 +3830,225 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>65</v>
+      <c r="B9" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
         <v>76128299</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K9" s="9">
         <v>18061296271</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9" s="9">
         <v>13451811185</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>65</v>
+      <c r="B10" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>76116635</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K10" s="9">
         <v>18061296271</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" s="9">
         <v>18551671169</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>65</v>
+      <c r="B11" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
         <v>76123028</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K11" s="9">
         <v>18061296271</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N11" s="9">
         <v>13770313685</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>65</v>
+      <c r="B12" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
         <v>76129852</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K12" s="9">
         <v>18061296271</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N12" s="9">
         <v>18251380104</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>76</v>
+      <c r="B13" s="44" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2">
         <v>76133273</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K13" s="9">
         <v>18061296271</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N13" s="2">
         <v>15955551912</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1">
@@ -4038,7 +4070,7 @@
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="46"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -4057,381 +4089,381 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>43187</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2">
         <v>76137157</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K16" s="9">
         <v>18061296271</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N16" s="2">
         <v>13377789827</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>43187</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2">
         <v>76138176</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K17" s="9">
         <v>18061296271</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N17" s="2">
         <v>15765025678</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1">
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="45">
         <v>43187</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2">
         <v>76152209</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K18" s="9">
         <v>18061296271</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N18" s="2">
         <v>13836247287</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="45">
         <v>43187</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2">
         <v>76152210</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K19" s="9">
         <v>18061296271</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N19" s="2">
         <v>18358878921</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1">
       <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="45">
         <v>43187</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F20" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="2">
         <v>76128178</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K20" s="9">
         <v>18061296271</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N20" s="2">
         <v>15611074292</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1">
       <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="45">
         <v>43190</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F21" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2">
         <v>76152981</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K21" s="9">
         <v>18061296271</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N21" s="2">
         <v>15205276843</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1">
       <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <v>43190</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="F22" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2">
         <v>76139116</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K22" s="9">
         <v>18061296271</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N22" s="2">
         <v>18100625855</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1">
       <c r="A23" s="2">
         <v>13</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="45">
         <v>43190</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2">
         <v>76139122</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K23" s="9">
         <v>18061296271</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N23" s="2">
         <v>18100625855</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3"/>
-      <c r="B24" s="47"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4450,710 +4482,710 @@
       <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="45">
         <v>43208</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F25" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="2">
         <v>76153979</v>
       </c>
-      <c r="H25" s="48" t="s">
-        <v>101</v>
+      <c r="H25" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="I25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K25" s="9">
         <v>18061296271</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N25" s="2">
         <v>18651662888</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1">
       <c r="A26" s="2">
         <v>16</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="45">
         <v>43208</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F26" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="2">
         <v>76156173</v>
       </c>
-      <c r="H26" s="48" t="s">
-        <v>103</v>
+      <c r="H26" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="I26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K26" s="9">
         <v>18061296271</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N26" s="2">
         <v>15979166367</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1">
       <c r="A27" s="2">
         <v>16</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <v>43208</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="2">
         <v>76156167</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K27" s="9">
         <v>18061296271</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N27" s="2">
         <v>13914760249</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1">
       <c r="A28" s="2">
         <v>16</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="45">
         <v>43208</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="2">
         <v>76152838</v>
       </c>
-      <c r="H28" s="48" t="s">
-        <v>108</v>
+      <c r="H28" s="47" t="s">
+        <v>107</v>
       </c>
       <c r="I28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K28" s="9">
         <v>18061296271</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N28" s="9">
         <v>18851058032</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1">
       <c r="A29" s="2">
         <v>16</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="45">
         <v>43208</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2">
         <v>76152851</v>
       </c>
-      <c r="H29" s="48" t="s">
-        <v>110</v>
+      <c r="H29" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="I29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K29" s="9">
         <v>18061296271</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" s="49">
+        <v>49</v>
+      </c>
+      <c r="N29" s="48">
         <v>18851058032</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1">
       <c r="A30" s="2">
         <v>16</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="45">
         <v>43208</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="F30" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="2">
         <v>76138868</v>
       </c>
-      <c r="H30" s="48" t="s">
-        <v>113</v>
+      <c r="H30" s="47" t="s">
+        <v>112</v>
       </c>
       <c r="I30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K30" s="9">
         <v>18061296271</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N30" s="2">
         <v>18511805661</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1">
       <c r="A31" s="2">
         <v>16</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="45">
         <v>43208</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F31" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="9">
         <v>76128369</v>
       </c>
-      <c r="H31" s="48" t="s">
-        <v>115</v>
+      <c r="H31" s="47" t="s">
+        <v>114</v>
       </c>
       <c r="I31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K31" s="9">
         <v>18061296271</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N31" s="2">
         <v>15189977010</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1">
       <c r="A32" s="2">
         <v>16</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="45">
         <v>43208</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F32" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="9">
         <v>76128810</v>
       </c>
-      <c r="H32" s="48" t="s">
-        <v>116</v>
+      <c r="H32" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="I32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K32" s="9">
         <v>18061296271</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N32" s="2">
         <v>15189977010</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1">
       <c r="A33" s="2">
         <v>16</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="45">
         <v>43208</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F33" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="9">
         <v>76126516</v>
       </c>
-      <c r="H33" s="48" t="s">
-        <v>117</v>
+      <c r="H33" s="47" t="s">
+        <v>116</v>
       </c>
       <c r="I33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K33" s="9">
         <v>18061296271</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N33" s="2">
         <v>15189977010</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1">
       <c r="A34" s="2">
         <v>16</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="45">
         <v>43208</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F34" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="9">
         <v>76123630</v>
       </c>
-      <c r="H34" s="48" t="s">
-        <v>118</v>
+      <c r="H34" s="47" t="s">
+        <v>117</v>
       </c>
       <c r="I34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K34" s="9">
         <v>18061296271</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N34" s="2">
         <v>15189977010</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1">
       <c r="A35" s="2">
         <v>16</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="45">
         <v>43208</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F35" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="9">
         <v>76153981</v>
       </c>
-      <c r="H35" s="48" t="s">
-        <v>119</v>
+      <c r="H35" s="47" t="s">
+        <v>118</v>
       </c>
       <c r="I35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K35" s="9">
         <v>18061296271</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N35" s="2">
         <v>15189977010</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1">
       <c r="A36" s="2">
         <v>16</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="45">
         <v>43208</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F36" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="9">
         <v>76158096</v>
       </c>
-      <c r="H36" s="48" t="s">
-        <v>120</v>
+      <c r="H36" s="47" t="s">
+        <v>119</v>
       </c>
       <c r="I36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K36" s="9">
         <v>18061296271</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N36" s="2">
         <v>15189977010</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1">
       <c r="A37" s="2">
         <v>16</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="45">
         <v>43208</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F37" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="2">
         <v>76159921</v>
       </c>
-      <c r="H37" s="48" t="s">
-        <v>121</v>
+      <c r="H37" s="47" t="s">
+        <v>120</v>
       </c>
       <c r="I37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K37" s="9">
         <v>18061296271</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N37" s="2">
         <v>15189977010</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1">
       <c r="A38" s="2">
         <v>16</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="45">
         <v>43208</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F38" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="2">
         <v>76160131</v>
       </c>
-      <c r="H38" s="48" t="s">
-        <v>122</v>
+      <c r="H38" s="47" t="s">
+        <v>121</v>
       </c>
       <c r="I38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K38" s="9">
         <v>18061296271</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N38" s="2">
         <v>18604247766</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1">
       <c r="A39" s="2">
         <v>16</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="45">
         <v>43208</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="F39" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="2">
         <v>76155675</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K39" s="9">
         <v>18061296271</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N39" s="49">
+        <v>49</v>
+      </c>
+      <c r="N39" s="48">
         <v>13675152232</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="46"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -5172,54 +5204,54 @@
       <c r="A41" s="2">
         <v>17</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="45">
         <v>43215</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="F41" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" s="2">
         <v>76160287</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K41" s="9">
         <v>18061296271</v>
       </c>
       <c r="L41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="O41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1">
       <c r="A42" s="2">
         <v>18</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -5238,7 +5270,7 @@
       <c r="A43" s="2">
         <v>19</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -5257,1106 +5289,1136 @@
       <c r="A44" s="128">
         <v>20</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="45">
         <v>43235</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="G44" s="2">
         <v>76162827</v>
       </c>
-      <c r="H44" s="49" t="s">
-        <v>135</v>
+      <c r="H44" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="I44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K44" s="9">
         <v>18061296271</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N44" s="2">
         <v>18858738185</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="129"/>
-      <c r="B45" s="46">
+      <c r="B45" s="45">
         <v>43235</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="F45" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" s="2">
         <v>76169318</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K45" s="9">
         <v>18061296271</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N45" s="2">
         <v>18651898966</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="129"/>
-      <c r="B46" s="46">
+      <c r="B46" s="45">
         <v>43235</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" s="2">
         <v>76169162</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K46" s="9">
         <v>18061296271</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N46" s="2">
         <v>18260406752</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="129"/>
-      <c r="B47" s="46">
+      <c r="B47" s="45">
         <v>43235</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" s="2">
         <v>76139122</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K47" s="9">
         <v>18061296271</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N47" s="2">
         <v>18100625855</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="41" customFormat="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="40" customFormat="1">
       <c r="A48" s="129"/>
-      <c r="B48" s="50">
+      <c r="B48" s="49">
         <v>43235</v>
       </c>
-      <c r="C48" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="51" t="s">
+      <c r="C48" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="50">
+        <v>76121892</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="51">
-        <v>76121892</v>
-      </c>
-      <c r="H48" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="I48" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="51">
+      <c r="K48" s="50">
         <v>18061296271</v>
       </c>
-      <c r="L48" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="M48" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="N48" s="56">
+      <c r="L48" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="M48" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="N48" s="55">
         <v>13182829987</v>
       </c>
-      <c r="O48" s="51" t="s">
-        <v>46</v>
+      <c r="O48" s="50" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="129"/>
-      <c r="B49" s="46">
+      <c r="B49" s="45">
         <v>43235</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F49" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G49" s="2">
         <v>76163550</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K49" s="9">
         <v>18061296271</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N49" s="2">
         <v>15872277432</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="130"/>
-      <c r="B50" s="46">
+      <c r="B50" s="45">
         <v>43235</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="E50" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" s="2">
         <v>76165897</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K50" s="9">
         <v>18061296271</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N50" s="2">
         <v>13930955177</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="128">
         <v>21</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="45">
         <v>43243</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F51" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G51" s="2">
         <v>76170036</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K51" s="9">
         <v>18061296271</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N51" s="2">
         <v>15189977010</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="129"/>
-      <c r="B52" s="46">
+      <c r="B52" s="45">
         <v>43243</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F52" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G52" s="2">
         <v>76170156</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K52" s="9">
         <v>18061296271</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N52" s="2">
         <v>15189977010</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="129"/>
-      <c r="B53" s="46">
+      <c r="B53" s="45">
         <v>43243</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F53" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53" s="2">
         <v>76170819</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K53" s="9">
         <v>18061296271</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N53" s="2">
         <v>15189977010</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="129"/>
-      <c r="B54" s="46">
+      <c r="B54" s="45">
         <v>43243</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F54" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="2">
         <v>76172299</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K54" s="9">
         <v>18061296271</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N54" s="2">
         <v>15189977010</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="129"/>
-      <c r="B55" s="46">
+      <c r="B55" s="45">
         <v>43243</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F55" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G55" s="2">
         <v>76172307</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K55" s="9">
         <v>18061296271</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N55" s="2">
         <v>15189977010</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="129"/>
-      <c r="B56" s="46">
+      <c r="B56" s="45">
         <v>43243</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="E56" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="F56" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G56" s="9">
         <v>76172680</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K56" s="9">
         <v>18061296271</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N56" s="9">
         <v>13618759189</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="129"/>
-      <c r="B57" s="46">
+      <c r="B57" s="45">
         <v>43243</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" s="9">
         <v>76169368</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K57" s="9">
         <v>18061296271</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N57" s="9">
         <v>15951986662</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="130"/>
-      <c r="B58" s="46">
+      <c r="B58" s="45">
         <v>43243</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" s="9">
         <v>76172320</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K58" s="9">
         <v>18061296271</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N58" s="9">
         <v>15951986662</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2">
         <v>22</v>
       </c>
-      <c r="B59" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
+      <c r="B59" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="57"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="56"/>
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1">
       <c r="A60" s="2">
         <v>23</v>
       </c>
-      <c r="B60" s="46">
+      <c r="B60" s="45">
         <v>43257</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G60" s="2">
         <v>76175770</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I60" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K60" s="9">
         <v>18061296271</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N60" s="9">
         <v>18505112888</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1">
       <c r="A61" s="128">
         <v>25</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>196</v>
+      <c r="B61" s="45">
+        <v>43271</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F61" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G61" s="2">
         <v>76173857</v>
       </c>
-      <c r="H61" s="94" t="s">
-        <v>199</v>
+      <c r="H61" s="93" t="s">
+        <v>197</v>
       </c>
       <c r="I61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K61" s="9">
         <v>18061296271</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N61" s="9">
         <v>15189977010</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1">
       <c r="A62" s="129"/>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="95">
+        <v>43271</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="G62" s="2">
         <v>76178939</v>
       </c>
-      <c r="H62" s="94" t="s">
-        <v>200</v>
+      <c r="H62" s="93" t="s">
+        <v>198</v>
       </c>
       <c r="I62" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K62" s="9">
         <v>18061296271</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N62" s="9">
         <v>15189977010</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1">
       <c r="A63" s="129"/>
-      <c r="B63" s="46" t="s">
-        <v>196</v>
+      <c r="B63" s="45">
+        <v>43271</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="94" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="94" t="s">
-        <v>203</v>
-      </c>
-      <c r="F63" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="93" t="s">
         <v>202</v>
+      </c>
+      <c r="E63" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="93" t="s">
+        <v>200</v>
       </c>
       <c r="G63" s="2">
         <v>76175787</v>
       </c>
-      <c r="H63" s="94" t="s">
-        <v>201</v>
+      <c r="H63" s="93" t="s">
+        <v>199</v>
       </c>
       <c r="I63" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K63" s="9">
         <v>18061296271</v>
       </c>
-      <c r="L63" s="94" t="s">
-        <v>205</v>
+      <c r="L63" s="93" t="s">
+        <v>203</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N63" s="9">
         <v>15606685662</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1">
       <c r="A64" s="130"/>
-      <c r="B64" s="96" t="s">
-        <v>196</v>
+      <c r="B64" s="95">
+        <v>43271</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="93" t="s">
         <v>206</v>
-      </c>
-      <c r="E64" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="F64" s="94" t="s">
-        <v>208</v>
       </c>
       <c r="G64" s="2">
         <v>76179639</v>
       </c>
-      <c r="H64" s="94" t="s">
-        <v>207</v>
+      <c r="H64" s="93" t="s">
+        <v>205</v>
       </c>
       <c r="I64" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K64" s="9">
         <v>18061296271</v>
       </c>
-      <c r="L64" s="94" t="s">
-        <v>205</v>
+      <c r="L64" s="93" t="s">
+        <v>203</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N64" s="9">
         <v>18068172866</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="128">
-        <v>25</v>
-      </c>
-      <c r="B65" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="95">
+        <v>43278</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="F65" s="93" t="s">
         <v>214</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="94" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" s="94" t="s">
-        <v>217</v>
       </c>
       <c r="G65" s="2">
         <v>76173536</v>
       </c>
-      <c r="H65" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="I65" s="94" t="s">
-        <v>217</v>
+      <c r="H65" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="I65" s="93" t="s">
+        <v>214</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65" s="9">
         <v>18061296271</v>
       </c>
-      <c r="L65" s="94" t="s">
-        <v>220</v>
+      <c r="L65" s="93" t="s">
+        <v>217</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N65" s="9">
         <v>13817924655</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="129"/>
-      <c r="B66" s="96" t="s">
-        <v>214</v>
+      <c r="B66" s="95">
+        <v>43278</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" s="94" t="s">
-        <v>215</v>
+        <v>79</v>
+      </c>
+      <c r="D66" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="93" t="s">
+        <v>212</v>
       </c>
       <c r="G66" s="2">
         <v>76180886</v>
       </c>
-      <c r="H66" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="I66" s="94" t="s">
-        <v>217</v>
+      <c r="H66" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="I66" s="93" t="s">
+        <v>214</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K66" s="9">
         <v>18061296271</v>
       </c>
-      <c r="L66" s="94" t="s">
-        <v>205</v>
+      <c r="L66" s="93" t="s">
+        <v>203</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N66" s="9">
         <v>18405117179</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="14"/>
-      <c r="B67" s="96" t="s">
-        <v>230</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1">
+      <c r="A67" s="130"/>
+      <c r="B67" s="95">
+        <v>43278</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D67" s="131" t="s">
-        <v>231</v>
-      </c>
-      <c r="E67" s="131" t="s">
-        <v>232</v>
-      </c>
-      <c r="F67" s="94" t="s">
-        <v>217</v>
-      </c>
-      <c r="G67" s="3">
+        <v>79</v>
+      </c>
+      <c r="D67" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67" s="2">
         <v>76181361</v>
       </c>
-      <c r="H67" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="I67" s="94" t="s">
-        <v>217</v>
+      <c r="H67" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="I67" s="93" t="s">
+        <v>214</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67" s="9">
         <v>18061296271</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N67" s="9">
         <v>15189977010</v>
       </c>
-      <c r="O67" s="3" t="s">
-        <v>54</v>
+      <c r="O67" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="14"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="58"/>
+      <c r="A68" s="128">
+        <v>27</v>
+      </c>
+      <c r="B68" s="95">
+        <v>43285</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="2">
+        <v>76181179</v>
+      </c>
+      <c r="H68" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="I68" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" s="9">
+        <v>18061296271</v>
+      </c>
+      <c r="L68" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N68" s="2">
+        <v>18900652201</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" s="57"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="14"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
+      <c r="A69" s="129"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="58"/>
+      <c r="P69" s="57"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="3"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6373,7 +6435,7 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="3"/>
+      <c r="A71" s="130"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -10334,11 +10396,12 @@
       <c r="O303" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A68:A71"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A58"/>
     <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A65:A67"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="3">
@@ -10351,7 +10414,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10360,7 +10423,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -10379,22 +10442,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>174</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
@@ -10402,44 +10465,44 @@
         <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="130"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="H3" s="21"/>
     </row>
@@ -10448,44 +10511,44 @@
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>177</v>
-      </c>
       <c r="D4" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="130"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>183</v>
-      </c>
       <c r="D5" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -10493,23 +10556,23 @@
       <c r="A6" s="2">
         <v>25</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="98" t="s">
-        <v>212</v>
-      </c>
       <c r="E6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="H6" s="21"/>
     </row>
@@ -10517,56 +10580,70 @@
       <c r="A7" s="128">
         <v>26</v>
       </c>
-      <c r="B7" s="94" t="s">
-        <v>210</v>
+      <c r="B7" s="93" t="s">
+        <v>208</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="98" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>222</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1">
       <c r="A8" s="130"/>
-      <c r="B8" s="23" t="s">
-        <v>228</v>
+      <c r="B8" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="98" t="s">
-        <v>225</v>
+        <v>211</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>222</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="G8" s="94" t="s">
-        <v>227</v>
+        <v>178</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>224</v>
       </c>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="2">
+        <v>27</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>233</v>
+      </c>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
@@ -10591,7 +10668,7 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="2"/>
@@ -10631,8 +10708,8 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="14.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="20"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -10641,7 +10718,7 @@
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
       <c r="E17" s="2"/>
@@ -10651,7 +10728,7 @@
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="2"/>
@@ -10661,7 +10738,7 @@
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
       <c r="E19" s="2"/>
@@ -10671,9 +10748,9 @@
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="25"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -10681,9 +10758,9 @@
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="25"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -10691,7 +10768,7 @@
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="12"/>
       <c r="D22" s="20"/>
       <c r="E22" s="2"/>
@@ -10701,7 +10778,7 @@
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="12"/>
       <c r="D23" s="20"/>
       <c r="E23" s="2"/>
@@ -10711,7 +10788,7 @@
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="12"/>
       <c r="D24" s="20"/>
       <c r="E24" s="2"/>
@@ -10721,7 +10798,7 @@
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="12"/>
       <c r="D25" s="20"/>
       <c r="E25" s="2"/>
@@ -10730,334 +10807,334 @@
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="27"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="27"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="14.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="27"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="27"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="14.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="27"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="27"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="26"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="27"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="26"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="27"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="26"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="27"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="26"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="27"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="26"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="26"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="26"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="26"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="26"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="26"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="26"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="26"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:8" ht="14.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="21"/>
-      <c r="H49" s="27"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" ht="14.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="27"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="26"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="26"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="26"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="26"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="26"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="26"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="26"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="26"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11076,7 +11153,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11103,16 +11180,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1">
@@ -11120,13 +11197,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="10">
         <v>43196</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="11"/>
@@ -11136,13 +11213,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="10">
         <v>43247</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
@@ -11152,26 +11229,26 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="12">
         <v>43260</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="130"/>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="12">
         <v>43274</v>
       </c>
-      <c r="D5" s="99" t="s">
-        <v>229</v>
+      <c r="D5" s="98" t="s">
+        <v>226</v>
       </c>
       <c r="E5" s="9"/>
     </row>
